--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FBD4F-5C0C-C04C-9EB5-A3FD7C4C4AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="998">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3130,12 +3131,18 @@
   <si>
     <t>QXByQDIwMjE</t>
   </si>
+  <si>
+    <t>UmFvQDA4OTE</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3615,10 +3622,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="157">
     <dxf>
@@ -5224,7 +5231,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5519,19 +5526,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -5584,7 +5594,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16">
       <c r="A2" s="18">
         <v>2394650</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16">
       <c r="A3" s="18">
         <v>2388192</v>
       </c>
@@ -5652,7 +5662,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16">
       <c r="A4" s="18">
         <v>23103239</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16">
       <c r="A5" s="18">
         <v>2394650</v>
       </c>
@@ -5718,6 +5728,20 @@
         <v>906</v>
       </c>
     </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>13221514</v>
+      </c>
+      <c r="B6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D6">
+        <v>973099787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5725,16 +5749,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="10" t="s">
         <v>94</v>
       </c>
@@ -5745,7 +5769,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
         <v>161</v>
       </c>
@@ -5756,7 +5780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
         <v>162</v>
       </c>
@@ -5767,7 +5791,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>163</v>
       </c>
@@ -5778,7 +5802,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="18" t="s">
         <v>164</v>
       </c>
@@ -5789,7 +5813,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="19" t="s">
         <v>165</v>
       </c>
@@ -5800,7 +5824,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30">
       <c r="B7" s="21" t="s">
         <v>167</v>
       </c>
@@ -5808,7 +5832,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30">
       <c r="B8" s="21" t="s">
         <v>167</v>
       </c>
@@ -5816,7 +5840,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30">
       <c r="B9" s="21" t="s">
         <v>167</v>
       </c>
@@ -5824,7 +5848,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30">
       <c r="B10" s="21" t="s">
         <v>167</v>
       </c>
@@ -5832,7 +5856,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="22" t="s">
         <v>168</v>
       </c>
@@ -5840,7 +5864,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -5848,7 +5872,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="20" t="s">
         <v>168</v>
       </c>
@@ -5856,7 +5880,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="20" t="s">
         <v>168</v>
       </c>
@@ -5864,7 +5888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="20" t="s">
         <v>168</v>
       </c>
@@ -5872,7 +5896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" s="20" t="s">
         <v>169</v>
       </c>
@@ -5880,7 +5904,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="20" t="s">
         <v>169</v>
       </c>
@@ -5888,7 +5912,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="20" t="s">
         <v>169</v>
       </c>
@@ -5896,7 +5920,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="20" t="s">
         <v>169</v>
       </c>
@@ -5904,7 +5928,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="45">
       <c r="B20" s="21" t="s">
         <v>170</v>
       </c>
@@ -5912,7 +5936,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="45">
       <c r="B21" s="23" t="s">
         <v>170</v>
       </c>
@@ -5920,7 +5944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="23" t="s">
         <v>171</v>
       </c>
@@ -5928,7 +5952,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="23" t="s">
         <v>171</v>
       </c>
@@ -5936,7 +5960,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="30">
       <c r="B24" s="23" t="s">
         <v>172</v>
       </c>
@@ -5944,7 +5968,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="30">
       <c r="B25" s="23" t="s">
         <v>172</v>
       </c>
@@ -5952,7 +5976,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="30">
       <c r="B26" s="23" t="s">
         <v>173</v>
       </c>
@@ -5960,7 +5984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="23" t="s">
         <v>174</v>
       </c>
@@ -5968,7 +5992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28" s="20" t="s">
         <v>169</v>
       </c>
@@ -5976,7 +6000,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="20" t="s">
         <v>169</v>
       </c>
@@ -5984,7 +6008,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30" s="24" t="s">
         <v>175</v>
       </c>
@@ -5992,7 +6016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" ht="30">
       <c r="B31" s="23" t="s">
         <v>172</v>
       </c>
@@ -6000,7 +6024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32" s="23" t="s">
         <v>171</v>
       </c>
@@ -6008,7 +6032,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="21" t="s">
         <v>168</v>
       </c>
@@ -6016,7 +6040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="20" t="s">
         <v>166</v>
       </c>
@@ -6030,19 +6054,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -6056,7 +6080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
         <v>207</v>
       </c>
@@ -6070,7 +6094,7 @@
         <v>973099626</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="28" t="s">
         <v>210</v>
       </c>
@@ -6100,16 +6124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -6120,7 +6144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="11" t="s">
         <v>104</v>
       </c>
@@ -6129,7 +6153,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
@@ -6138,7 +6162,7 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="13" t="s">
         <v>107</v>
       </c>
@@ -6147,7 +6171,7 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="13" t="s">
         <v>108</v>
       </c>
@@ -6156,7 +6180,7 @@
       </c>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="13" t="s">
         <v>109</v>
       </c>
@@ -6173,16 +6197,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="10" t="s">
         <v>110</v>
       </c>
@@ -6190,7 +6214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
@@ -6198,7 +6222,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
         <v>981</v>
       </c>
@@ -6206,7 +6230,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
@@ -6214,19 +6238,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -6238,16 +6262,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -6270,19 +6294,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="51">
       <c r="A1" s="16" t="s">
         <v>125</v>
       </c>
@@ -6323,7 +6347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="160">
       <c r="A2" s="76" t="s">
         <v>220</v>
       </c>
@@ -6362,20 +6386,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -6404,7 +6428,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="4" t="s">
         <v>145</v>
       </c>
@@ -6415,7 +6439,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" t="s">
         <v>975</v>
       </c>
@@ -6433,16 +6457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
         <v>148</v>
       </c>
@@ -6477,7 +6501,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -6491,7 +6515,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -6505,7 +6529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -6533,7 +6557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -6547,7 +6571,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -6561,7 +6585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -6575,7 +6599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -6589,7 +6613,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -6603,7 +6627,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -6617,7 +6641,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -6631,7 +6655,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -6645,7 +6669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -6659,7 +6683,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -6673,7 +6697,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -6687,7 +6711,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -6701,7 +6725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -6715,7 +6739,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -6729,7 +6753,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>196</v>
       </c>
@@ -6743,7 +6767,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>197</v>
       </c>
@@ -6757,7 +6781,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -6771,7 +6795,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -6785,7 +6809,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -6799,7 +6823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -6819,16 +6843,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
         <v>148</v>
       </c>
@@ -6863,7 +6887,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -6877,7 +6901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -6897,21 +6921,21 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" width="26.5" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
@@ -6922,7 +6946,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
         <v>176</v>
       </c>
@@ -6933,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
         <v>184</v>
       </c>
@@ -6951,46 +6975,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -7001,16 +7025,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
@@ -7051,7 +7075,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
@@ -7078,7 +7102,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="18" t="s">
         <v>36</v>
       </c>
@@ -7105,7 +7129,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="48">
       <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
@@ -7132,7 +7156,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="18" t="s">
         <v>43</v>
       </c>
@@ -7165,7 +7189,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="18" t="s">
         <v>49</v>
       </c>
@@ -7190,7 +7214,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="18" t="s">
         <v>51</v>
       </c>
@@ -7215,7 +7239,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -7242,7 +7266,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="18" t="s">
         <v>56</v>
       </c>
@@ -7269,7 +7293,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="44" t="s">
         <v>916</v>
       </c>
@@ -7296,7 +7320,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="44" t="s">
         <v>921</v>
       </c>
@@ -7323,7 +7347,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="44" t="s">
         <v>927</v>
       </c>
@@ -7354,7 +7378,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="18" t="s">
         <v>935</v>
       </c>
@@ -7379,7 +7403,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="48">
       <c r="A14" s="44" t="s">
         <v>940</v>
       </c>
@@ -7416,7 +7440,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="44" t="s">
         <v>945</v>
       </c>
@@ -7447,7 +7471,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="44" t="s">
         <v>948</v>
       </c>
@@ -7472,7 +7496,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="44" t="s">
         <v>952</v>
       </c>
@@ -7497,7 +7521,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="44" t="s">
         <v>957</v>
       </c>
@@ -7524,7 +7548,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="48">
       <c r="A19" s="44" t="s">
         <v>960</v>
       </c>
@@ -7565,7 +7589,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="44" t="s">
         <v>982</v>
       </c>
@@ -7602,16 +7626,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="AS2" sqref="A1:BG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
@@ -7790,7 +7814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" s="80" t="s">
         <v>402</v>
       </c>
@@ -7822,7 +7846,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59">
       <c r="A3" s="82" t="s">
         <v>315</v>
       </c>
@@ -7865,19 +7889,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -7897,7 +7921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="82" t="s">
         <v>315</v>
       </c>
@@ -7914,7 +7938,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="80" t="s">
         <v>315</v>
       </c>
@@ -7942,16 +7966,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -8067,7 +8091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="60">
       <c r="A2" s="29" t="s">
         <v>402</v>
       </c>
@@ -8144,7 +8168,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="32">
       <c r="A3" s="29" t="s">
         <v>402</v>
       </c>
@@ -8221,7 +8245,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="32">
       <c r="A4" s="29" t="s">
         <v>402</v>
       </c>
@@ -8298,7 +8322,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="75">
       <c r="A5" s="29" t="s">
         <v>402</v>
       </c>
@@ -8375,7 +8399,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="285">
       <c r="A6" s="31" t="s">
         <v>402</v>
       </c>
@@ -8452,7 +8476,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="45">
       <c r="A7" s="29" t="s">
         <v>402</v>
       </c>
@@ -8529,7 +8553,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="29" t="s">
         <v>402</v>
       </c>
@@ -8602,7 +8626,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="195">
       <c r="A9" s="31" t="s">
         <v>402</v>
       </c>
@@ -8679,7 +8703,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="60">
       <c r="A10" s="29" t="s">
         <v>402</v>
       </c>
@@ -8754,7 +8778,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="60">
       <c r="A11" s="29" t="s">
         <v>402</v>
       </c>
@@ -8829,7 +8853,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="180">
       <c r="A12" s="29" t="s">
         <v>402</v>
       </c>
@@ -8904,7 +8928,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="105">
       <c r="A13" s="29" t="s">
         <v>402</v>
       </c>
@@ -8979,7 +9003,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="45">
       <c r="A14" s="29" t="s">
         <v>402</v>
       </c>
@@ -9054,7 +9078,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="180">
       <c r="A15" s="29" t="s">
         <v>402</v>
       </c>
@@ -9129,7 +9153,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="204" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="225">
       <c r="A16" s="29" t="s">
         <v>402</v>
       </c>
@@ -9204,7 +9228,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="45">
       <c r="A17" s="29" t="s">
         <v>402</v>
       </c>
@@ -9279,7 +9303,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="135">
       <c r="A18" s="29" t="s">
         <v>402</v>
       </c>
@@ -9354,7 +9378,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="75">
       <c r="A19" s="29" t="s">
         <v>402</v>
       </c>
@@ -9429,7 +9453,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="45">
       <c r="A20" s="29" t="s">
         <v>402</v>
       </c>
@@ -9504,7 +9528,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="60">
       <c r="A21" s="29" t="s">
         <v>402</v>
       </c>
@@ -9579,7 +9603,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="45">
       <c r="A22" s="29" t="s">
         <v>402</v>
       </c>
@@ -9654,7 +9678,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="75">
       <c r="A23" s="29" t="s">
         <v>402</v>
       </c>
@@ -9729,7 +9753,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="150">
       <c r="A24" s="35" t="s">
         <v>402</v>
       </c>
@@ -9804,7 +9828,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="135">
       <c r="A25" s="29" t="s">
         <v>402</v>
       </c>
@@ -9879,7 +9903,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="105">
       <c r="A26" s="29" t="s">
         <v>402</v>
       </c>
@@ -9954,7 +9978,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="150">
       <c r="A27" s="29" t="s">
         <v>402</v>
       </c>
@@ -10029,7 +10053,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="105">
       <c r="A28" s="29" t="s">
         <v>402</v>
       </c>
@@ -10104,7 +10128,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="90">
       <c r="A29" s="29" t="s">
         <v>402</v>
       </c>
@@ -10179,7 +10203,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="105">
       <c r="A30" s="29" t="s">
         <v>402</v>
       </c>
@@ -10254,7 +10278,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="210">
       <c r="A31" s="29" t="s">
         <v>402</v>
       </c>
@@ -10329,7 +10353,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="30">
       <c r="A32" s="35" t="s">
         <v>402</v>
       </c>
@@ -10404,7 +10428,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="45">
       <c r="A33" s="29" t="s">
         <v>402</v>
       </c>
@@ -10479,7 +10503,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="210">
       <c r="A34" s="29" t="s">
         <v>402</v>
       </c>
@@ -10554,7 +10578,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="45">
       <c r="A35" s="29" t="s">
         <v>402</v>
       </c>
@@ -10629,7 +10653,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="90">
       <c r="A36" s="35" t="s">
         <v>402</v>
       </c>
@@ -10704,7 +10728,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="210">
       <c r="A37" s="29" t="s">
         <v>402</v>
       </c>
@@ -10779,7 +10803,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="195">
       <c r="A38" s="29" t="s">
         <v>402</v>
       </c>
@@ -10854,7 +10878,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="30">
       <c r="A39" s="35" t="s">
         <v>402</v>
       </c>
@@ -10929,7 +10953,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="255">
       <c r="A40" s="29" t="s">
         <v>402</v>
       </c>
@@ -10959,7 +10983,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="30">
       <c r="A41" s="29" t="s">
         <v>402</v>
       </c>
@@ -11034,7 +11058,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="30">
       <c r="A42" s="29" t="s">
         <v>402</v>
       </c>
@@ -11109,7 +11133,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="45">
       <c r="A43" s="29" t="s">
         <v>402</v>
       </c>
@@ -11184,7 +11208,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="45">
       <c r="A44" s="29" t="s">
         <v>402</v>
       </c>
@@ -11259,7 +11283,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="45">
       <c r="A45" s="29" t="s">
         <v>402</v>
       </c>
@@ -11334,7 +11358,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="45">
       <c r="A46" s="29" t="s">
         <v>402</v>
       </c>
@@ -11409,7 +11433,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="45">
       <c r="A47" s="29" t="s">
         <v>402</v>
       </c>
@@ -11484,7 +11508,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="204" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="240">
       <c r="A48" s="29" t="s">
         <v>402</v>
       </c>
@@ -11559,7 +11583,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="210">
       <c r="A49" s="29" t="s">
         <v>402</v>
       </c>
@@ -11634,7 +11658,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="30">
       <c r="A50" s="29" t="s">
         <v>402</v>
       </c>
@@ -11709,7 +11733,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="29" t="s">
         <v>402</v>
       </c>
@@ -11784,7 +11808,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="153" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="135">
       <c r="A52" s="29" t="s">
         <v>402</v>
       </c>
@@ -11859,7 +11883,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="90">
       <c r="A53" s="29" t="s">
         <v>402</v>
       </c>
@@ -11934,7 +11958,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="60">
       <c r="A54" s="29" t="s">
         <v>402</v>
       </c>
@@ -12009,7 +12033,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="60">
       <c r="A55" s="29" t="s">
         <v>402</v>
       </c>
@@ -12084,7 +12108,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="45">
       <c r="A56" s="29" t="s">
         <v>402</v>
       </c>
@@ -12159,7 +12183,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="240">
       <c r="A57" s="29" t="s">
         <v>402</v>
       </c>
@@ -12234,7 +12258,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="150">
       <c r="A58" s="29" t="s">
         <v>315</v>
       </c>
@@ -12309,7 +12333,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="45">
       <c r="A59" s="29" t="s">
         <v>315</v>
       </c>
@@ -12384,7 +12408,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="153" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="165">
       <c r="A60" s="29" t="s">
         <v>402</v>
       </c>
@@ -12459,7 +12483,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="45">
       <c r="A61" s="29" t="s">
         <v>402</v>
       </c>
@@ -12534,7 +12558,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="45">
       <c r="A62" s="29" t="s">
         <v>402</v>
       </c>
@@ -12609,7 +12633,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="195">
       <c r="A63" s="29" t="s">
         <v>402</v>
       </c>
@@ -12684,7 +12708,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="90">
       <c r="A64" s="35" t="s">
         <v>402</v>
       </c>
@@ -12759,7 +12783,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="45">
       <c r="A65" s="29" t="s">
         <v>402</v>
       </c>
@@ -12834,7 +12858,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="30">
       <c r="A66" s="29" t="s">
         <v>402</v>
       </c>
@@ -12909,7 +12933,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="60">
       <c r="A67" s="29" t="s">
         <v>402</v>
       </c>
@@ -12984,7 +13008,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="45">
       <c r="A68" s="29" t="s">
         <v>402</v>
       </c>
@@ -13059,7 +13083,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="60">
       <c r="A69" s="29" t="s">
         <v>402</v>
       </c>
@@ -13134,7 +13158,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="30">
       <c r="A70" s="29" t="s">
         <v>402</v>
       </c>
@@ -13209,7 +13233,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="45">
       <c r="A71" s="29" t="s">
         <v>402</v>
       </c>
@@ -13284,7 +13308,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="45">
       <c r="A72" s="29" t="s">
         <v>402</v>
       </c>
@@ -13359,7 +13383,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="195">
       <c r="A73" s="29" t="s">
         <v>402</v>
       </c>
@@ -13434,7 +13458,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="90">
       <c r="A74" s="29" t="s">
         <v>402</v>
       </c>
@@ -13509,7 +13533,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="45">
       <c r="A75" s="29" t="s">
         <v>402</v>
       </c>
@@ -13584,7 +13608,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="30">
       <c r="A76" s="29" t="s">
         <v>402</v>
       </c>
@@ -13659,7 +13683,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77" s="29" t="s">
         <v>402</v>
       </c>
@@ -13734,7 +13758,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="45">
       <c r="A78" s="29" t="s">
         <v>402</v>
       </c>
@@ -13809,7 +13833,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="60">
       <c r="A79" s="29" t="s">
         <v>402</v>
       </c>
@@ -13884,7 +13908,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="60">
       <c r="A80" s="29" t="s">
         <v>402</v>
       </c>
@@ -13959,7 +13983,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="45">
       <c r="A81" s="29" t="s">
         <v>402</v>
       </c>
@@ -14034,7 +14058,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="45">
       <c r="A82" s="29" t="s">
         <v>402</v>
       </c>
@@ -14109,7 +14133,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="30">
       <c r="A83" s="29" t="s">
         <v>402</v>
       </c>
@@ -14184,7 +14208,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="30">
       <c r="A84" s="29" t="s">
         <v>402</v>
       </c>
@@ -14259,7 +14283,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="45">
       <c r="A85" s="29" t="s">
         <v>402</v>
       </c>
@@ -14334,7 +14358,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="30">
       <c r="A86" s="29" t="s">
         <v>402</v>
       </c>
@@ -14409,7 +14433,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="45">
       <c r="A87" s="29" t="s">
         <v>402</v>
       </c>
@@ -14484,7 +14508,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="30">
       <c r="A88" s="29" t="s">
         <v>402</v>
       </c>
@@ -14559,7 +14583,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="45">
       <c r="A89" s="29" t="s">
         <v>402</v>
       </c>
@@ -14634,7 +14658,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37">
       <c r="A90" s="29" t="s">
         <v>402</v>
       </c>
@@ -14709,7 +14733,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="30">
       <c r="A91" s="29" t="s">
         <v>402</v>
       </c>
@@ -14784,7 +14808,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="30">
       <c r="A92" s="29" t="s">
         <v>402</v>
       </c>
@@ -14859,7 +14883,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="60">
       <c r="A93" s="29" t="s">
         <v>402</v>
       </c>
@@ -14934,7 +14958,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="45">
       <c r="A94" s="29" t="s">
         <v>402</v>
       </c>
@@ -15009,7 +15033,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="45">
       <c r="A95" s="29" t="s">
         <v>402</v>
       </c>
@@ -15084,7 +15108,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" ht="30">
       <c r="A96" s="29" t="s">
         <v>402</v>
       </c>
@@ -15159,7 +15183,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="30">
       <c r="A97" s="29" t="s">
         <v>402</v>
       </c>
@@ -15234,7 +15258,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="30">
       <c r="A98" s="29" t="s">
         <v>402</v>
       </c>
@@ -15309,7 +15333,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="30">
       <c r="A99" s="29" t="s">
         <v>402</v>
       </c>
@@ -15384,7 +15408,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="30">
       <c r="A100" s="29" t="s">
         <v>402</v>
       </c>
@@ -15459,7 +15483,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37">
       <c r="A101" s="29" t="s">
         <v>402</v>
       </c>
@@ -15534,7 +15558,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="45">
       <c r="A102" s="29" t="s">
         <v>402</v>
       </c>
@@ -15609,7 +15633,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="60">
       <c r="A103" s="29" t="s">
         <v>402</v>
       </c>
@@ -15684,7 +15708,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" ht="75">
       <c r="A104" s="29" t="s">
         <v>402</v>
       </c>
@@ -15759,7 +15783,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" ht="60">
       <c r="A105" s="29" t="s">
         <v>402</v>
       </c>
@@ -15834,7 +15858,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="30">
       <c r="A106" s="29" t="s">
         <v>402</v>
       </c>
@@ -15909,7 +15933,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" ht="45">
       <c r="A107" s="29" t="s">
         <v>402</v>
       </c>
@@ -15984,7 +16008,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" ht="30">
       <c r="A108" s="29" t="s">
         <v>402</v>
       </c>
@@ -16059,7 +16083,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" ht="48">
       <c r="A109" s="29" t="s">
         <v>402</v>
       </c>
@@ -16136,7 +16160,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" ht="64">
       <c r="A110" s="29" t="s">
         <v>402</v>
       </c>
@@ -16213,7 +16237,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" ht="48">
       <c r="A111" s="29" t="s">
         <v>402</v>
       </c>
@@ -16290,7 +16314,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" ht="75">
       <c r="A112" s="29" t="s">
         <v>402</v>
       </c>
@@ -16367,7 +16391,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" ht="45">
       <c r="A113" s="29" t="s">
         <v>402</v>
       </c>
@@ -16444,7 +16468,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" ht="32">
       <c r="A114" s="29" t="s">
         <v>402</v>
       </c>
@@ -16521,7 +16545,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" ht="30">
       <c r="A115" s="29" t="s">
         <v>402</v>
       </c>
@@ -16598,7 +16622,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" ht="32">
       <c r="A116" s="29" t="s">
         <v>402</v>
       </c>
@@ -16675,7 +16699,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" ht="60">
       <c r="A117" s="29" t="s">
         <v>402</v>
       </c>
@@ -16752,7 +16776,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="51" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" ht="60">
       <c r="A118" s="29" t="s">
         <v>315</v>
       </c>
@@ -16808,7 +16832,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" ht="60">
       <c r="A119" s="29" t="s">
         <v>402</v>
       </c>
@@ -16864,7 +16888,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="285">
       <c r="A120" s="29" t="s">
         <v>315</v>
       </c>
@@ -16920,7 +16944,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="204" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="210">
       <c r="A121" s="29" t="s">
         <v>836</v>
       </c>
@@ -16958,7 +16982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="135">
       <c r="A122" s="29" t="s">
         <v>402</v>
       </c>
@@ -17014,7 +17038,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="45">
       <c r="A123" s="29" t="s">
         <v>402</v>
       </c>
@@ -17070,7 +17094,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="75">
       <c r="A124" s="29" t="s">
         <v>402</v>
       </c>
@@ -17135,7 +17159,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" ht="45">
       <c r="A125" s="29" t="s">
         <v>402</v>
       </c>
@@ -17200,7 +17224,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37">
       <c r="A126" s="31" t="s">
         <v>846</v>
       </c>
@@ -17256,7 +17280,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="30">
       <c r="A127" s="31" t="s">
         <v>846</v>
       </c>
@@ -17312,7 +17336,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37">
       <c r="A128" s="31" t="s">
         <v>846</v>
       </c>
@@ -17368,7 +17392,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="30">
       <c r="A129" s="29" t="s">
         <v>402</v>
       </c>
@@ -17633,19 +17657,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BG129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="74" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
@@ -17824,7 +17848,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" s="80" t="s">
         <v>402</v>
       </c>
@@ -17856,7 +17880,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59">
       <c r="A3" s="82" t="s">
         <v>315</v>
       </c>
@@ -17888,382 +17912,382 @@
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129"/>
     </row>
   </sheetData>
@@ -18277,16 +18301,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -18306,7 +18330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="29" t="s">
         <v>227</v>
       </c>
@@ -18326,7 +18350,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="29" t="s">
         <v>227</v>
       </c>
@@ -18343,7 +18367,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="29" t="s">
         <v>227</v>
       </c>
@@ -18356,7 +18380,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="29" t="s">
         <v>227</v>
       </c>
@@ -18369,7 +18393,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="31" t="s">
         <v>227</v>
       </c>
@@ -18384,7 +18408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
         <v>227</v>
       </c>
@@ -18399,7 +18423,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="29" t="s">
         <v>227</v>
       </c>
@@ -18414,7 +18438,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="29" t="s">
         <v>227</v>
       </c>
@@ -18429,7 +18453,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="35" t="s">
         <v>227</v>
       </c>
@@ -18444,7 +18468,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="90">
       <c r="A11" s="29" t="s">
         <v>227</v>
       </c>
@@ -18459,7 +18483,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="29" t="s">
         <v>227</v>
       </c>
@@ -18474,7 +18498,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="29" t="s">
         <v>227</v>
       </c>
@@ -18489,7 +18513,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="29" t="s">
         <v>227</v>
       </c>
@@ -18504,7 +18528,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="29" t="s">
         <v>227</v>
       </c>
@@ -18519,7 +18543,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60">
       <c r="A16" s="29" t="s">
         <v>227</v>
       </c>
@@ -18534,7 +18558,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="60">
       <c r="A17" s="29" t="s">
         <v>227</v>
       </c>
@@ -18549,7 +18573,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="29" t="s">
         <v>227</v>
       </c>
@@ -18564,7 +18588,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="29" t="s">
         <v>227</v>
       </c>
@@ -18579,7 +18603,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="60">
       <c r="A20" s="29" t="s">
         <v>227</v>
       </c>
@@ -18594,7 +18618,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="29" t="s">
         <v>227</v>
       </c>
@@ -18609,7 +18633,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="60">
       <c r="A22" s="29" t="s">
         <v>227</v>
       </c>
@@ -18624,7 +18648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="29" t="s">
         <v>227</v>
       </c>
@@ -18639,7 +18663,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="29" t="s">
         <v>227</v>
       </c>
@@ -18654,7 +18678,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="60">
       <c r="A25" s="29" t="s">
         <v>227</v>
       </c>
@@ -18669,7 +18693,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="60">
       <c r="A26" s="29" t="s">
         <v>227</v>
       </c>
@@ -18684,7 +18708,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="60">
       <c r="A27" s="29" t="s">
         <v>227</v>
       </c>
@@ -18699,7 +18723,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="29" t="s">
         <v>227</v>
       </c>
@@ -18714,7 +18738,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="75">
       <c r="A29" s="29" t="s">
         <v>227</v>
       </c>
@@ -18729,7 +18753,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="90">
       <c r="A30" s="29" t="s">
         <v>227</v>
       </c>
@@ -18744,7 +18768,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="75">
       <c r="A31" s="29" t="s">
         <v>227</v>
       </c>
@@ -18759,7 +18783,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45">
       <c r="A32" s="29" t="s">
         <v>227</v>
       </c>
@@ -18774,7 +18798,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="29" t="s">
         <v>227</v>
       </c>
@@ -18789,7 +18813,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="29" t="s">
         <v>227</v>
       </c>
@@ -18804,7 +18828,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="75">
       <c r="A35" s="29" t="s">
         <v>227</v>
       </c>
@@ -18819,7 +18843,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="75">
       <c r="A36" s="29" t="s">
         <v>227</v>
       </c>
@@ -18834,7 +18858,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="90">
       <c r="A37" s="29" t="s">
         <v>227</v>
       </c>
@@ -18849,7 +18873,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="60">
       <c r="A38" s="29" t="s">
         <v>227</v>
       </c>
@@ -18864,7 +18888,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="29" t="s">
         <v>227</v>
       </c>
@@ -18879,7 +18903,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="75">
       <c r="A40" s="29" t="s">
         <v>227</v>
       </c>
@@ -18894,7 +18918,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="135">
       <c r="A41" s="29" t="s">
         <v>227</v>
       </c>
@@ -18909,7 +18933,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="29" t="s">
         <v>227</v>
       </c>
@@ -18924,7 +18948,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45">
       <c r="A43" s="29" t="s">
         <v>315</v>
       </c>
@@ -18939,7 +18963,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="29" t="s">
         <v>315</v>
       </c>
@@ -18954,7 +18978,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="75">
       <c r="A45" s="29" t="s">
         <v>315</v>
       </c>
@@ -18969,7 +18993,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="90">
       <c r="A46" s="29" t="s">
         <v>227</v>
       </c>
@@ -18984,7 +19008,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="29" t="s">
         <v>227</v>
       </c>
@@ -18999,7 +19023,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="60">
       <c r="A48" s="29" t="s">
         <v>227</v>
       </c>
@@ -19014,7 +19038,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45">
       <c r="A49" s="29" t="s">
         <v>227</v>
       </c>
@@ -19029,7 +19053,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="29" t="s">
         <v>227</v>
       </c>
@@ -19044,7 +19068,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="29" t="s">
         <v>227</v>
       </c>
@@ -19059,7 +19083,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="29" t="s">
         <v>227</v>
       </c>
@@ -19074,7 +19098,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="29" t="s">
         <v>227</v>
       </c>
@@ -19089,7 +19113,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="45">
       <c r="A54" s="29" t="s">
         <v>227</v>
       </c>
@@ -19104,7 +19128,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30">
       <c r="A55" s="29" t="s">
         <v>227</v>
       </c>
@@ -19119,7 +19143,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="29" t="s">
         <v>227</v>
       </c>
@@ -19134,7 +19158,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="29" t="s">
         <v>227</v>
       </c>
@@ -19149,7 +19173,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="29" t="s">
         <v>227</v>
       </c>
@@ -19164,7 +19188,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="45">
       <c r="A59" s="29" t="s">
         <v>227</v>
       </c>
@@ -19179,7 +19203,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30">
       <c r="A60" s="29" t="s">
         <v>227</v>
       </c>
@@ -19194,7 +19218,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="60">
       <c r="A61" s="29" t="s">
         <v>227</v>
       </c>
@@ -19209,7 +19233,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="60">
       <c r="A62" s="29" t="s">
         <v>227</v>
       </c>
@@ -19224,7 +19248,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45">
       <c r="A63" s="29" t="s">
         <v>227</v>
       </c>
@@ -19239,7 +19263,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="29" t="s">
         <v>227</v>
       </c>
@@ -19254,7 +19278,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="29" t="s">
         <v>227</v>
       </c>
@@ -19269,7 +19293,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="60">
       <c r="A66" s="29" t="s">
         <v>227</v>
       </c>
@@ -19284,7 +19308,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="75">
       <c r="A67" s="29" t="s">
         <v>227</v>
       </c>
@@ -19299,7 +19323,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="29" t="s">
         <v>227</v>
       </c>
@@ -19314,7 +19338,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30">
       <c r="A69" s="29" t="s">
         <v>227</v>
       </c>
@@ -19329,7 +19353,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="29" t="s">
         <v>227</v>
       </c>
@@ -19346,7 +19370,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="30">
       <c r="A71" s="29" t="s">
         <v>227</v>
       </c>
@@ -19361,7 +19385,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="45">
       <c r="A72" s="29" t="s">
         <v>227</v>
       </c>
@@ -19378,7 +19402,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30">
       <c r="A73" s="29" t="s">
         <v>227</v>
       </c>
@@ -19395,7 +19419,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="32">
       <c r="A74" s="29" t="s">
         <v>227</v>
       </c>
@@ -19412,7 +19436,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30">
       <c r="A75" s="29" t="s">
         <v>402</v>
       </c>
@@ -19429,7 +19453,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="29" t="s">
         <v>227</v>
       </c>
@@ -19446,7 +19470,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="75">
       <c r="A77" s="29" t="s">
         <v>227</v>
       </c>
@@ -19463,7 +19487,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="29" t="s">
         <v>227</v>
       </c>
@@ -19480,7 +19504,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="16">
       <c r="A79" s="29" t="s">
         <v>227</v>
       </c>
@@ -19497,7 +19521,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="32">
       <c r="A80" s="29" t="s">
         <v>227</v>
       </c>
@@ -19514,7 +19538,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="29" t="s">
         <v>227</v>
       </c>
@@ -19531,7 +19555,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="32">
       <c r="A82" s="29" t="s">
         <v>227</v>
       </c>
@@ -19548,7 +19572,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="48">
       <c r="A83" s="35" t="s">
         <v>227</v>
       </c>
@@ -19565,7 +19589,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="32">
       <c r="A84" s="29" t="s">
         <v>227</v>
       </c>
@@ -19582,7 +19606,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="32">
       <c r="A85" s="29" t="s">
         <v>227</v>
       </c>
@@ -19599,7 +19623,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="30">
       <c r="A86" s="29" t="s">
         <v>227</v>
       </c>
@@ -19616,7 +19640,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="45">
       <c r="A87" s="29" t="s">
         <v>227</v>
       </c>
@@ -19633,7 +19657,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30">
       <c r="A88" s="29" t="s">
         <v>227</v>
       </c>
@@ -19650,7 +19674,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="45">
       <c r="A89" s="29" t="s">
         <v>227</v>
       </c>
@@ -19667,7 +19691,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30">
       <c r="A90" s="29" t="s">
         <v>227</v>
       </c>
@@ -19684,7 +19708,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30">
       <c r="A91" s="29" t="s">
         <v>227</v>
       </c>
@@ -19701,7 +19725,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="45">
       <c r="A92" s="29" t="s">
         <v>227</v>
       </c>
@@ -19718,7 +19742,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="30">
       <c r="A93" s="29" t="s">
         <v>227</v>
       </c>
@@ -19735,7 +19759,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="29" t="s">
         <v>227</v>
       </c>
@@ -19752,7 +19776,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="29" t="s">
         <v>227</v>
       </c>
@@ -19769,7 +19793,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="45">
       <c r="A96" s="29" t="s">
         <v>446</v>
       </c>
@@ -19786,7 +19810,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="29" t="s">
         <v>315</v>
       </c>
@@ -19803,7 +19827,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="60">
       <c r="A98" s="29" t="s">
         <v>315</v>
       </c>
@@ -19820,7 +19844,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="60">
       <c r="A99" s="29" t="s">
         <v>315</v>
       </c>
@@ -19837,7 +19861,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="60">
       <c r="A100" s="29" t="s">
         <v>315</v>
       </c>
@@ -19854,7 +19878,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="180">
       <c r="A101" s="29" t="s">
         <v>315</v>
       </c>
@@ -19871,7 +19895,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="45">
       <c r="A102" s="29" t="s">
         <v>315</v>
       </c>
@@ -19888,7 +19912,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="29" t="s">
         <v>460</v>
       </c>
@@ -19905,7 +19929,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="29" t="s">
         <v>460</v>
       </c>
@@ -19922,7 +19946,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="90">
       <c r="A105" s="29" t="s">
         <v>460</v>
       </c>
@@ -19939,7 +19963,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="45">
       <c r="A106" s="29" t="s">
         <v>315</v>
       </c>
@@ -19956,7 +19980,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="180">
       <c r="A107" s="29" t="s">
         <v>315</v>
       </c>
@@ -19973,7 +19997,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="45">
       <c r="A108" s="29" t="s">
         <v>315</v>
       </c>
@@ -19990,7 +20014,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="204" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="225">
       <c r="A109" s="29" t="s">
         <v>315</v>
       </c>
@@ -20007,7 +20031,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="90">
       <c r="A110" s="29" t="s">
         <v>315</v>
       </c>
@@ -20024,7 +20048,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="135">
       <c r="A111" s="29" t="s">
         <v>315</v>
       </c>
@@ -20041,7 +20065,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="75">
       <c r="A112" s="29" t="s">
         <v>315</v>
       </c>
@@ -20058,7 +20082,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="45">
       <c r="A113" s="29" t="s">
         <v>315</v>
       </c>
@@ -20075,7 +20099,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="60">
       <c r="A114" s="29" t="s">
         <v>315</v>
       </c>
@@ -20092,7 +20116,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="60">
       <c r="A115" s="29" t="s">
         <v>227</v>
       </c>
@@ -20109,7 +20133,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="75">
       <c r="A116" s="29" t="s">
         <v>487</v>
       </c>
@@ -20126,7 +20150,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="120">
       <c r="A117" s="29" t="s">
         <v>487</v>
       </c>
@@ -20143,7 +20167,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="210">
       <c r="A118" s="29" t="s">
         <v>402</v>
       </c>
@@ -20160,7 +20184,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="45">
       <c r="A119" s="29" t="s">
         <v>402</v>
       </c>
@@ -20177,7 +20201,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="30">
       <c r="A120" s="29" t="s">
         <v>497</v>
       </c>
@@ -20194,7 +20218,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="29" t="s">
         <v>487</v>
       </c>
@@ -20211,7 +20235,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="120">
       <c r="A122" s="29" t="s">
         <v>497</v>
       </c>
@@ -20228,7 +20252,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="90">
       <c r="A123" s="29" t="s">
         <v>487</v>
       </c>
@@ -20245,7 +20269,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="105">
       <c r="A124" s="29" t="s">
         <v>487</v>
       </c>
@@ -20262,7 +20286,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="210">
       <c r="A125" s="29" t="s">
         <v>487</v>
       </c>
@@ -20279,7 +20303,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="30">
       <c r="A126" s="29" t="s">
         <v>487</v>
       </c>
@@ -20296,7 +20320,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="60">
       <c r="A127" s="29" t="s">
         <v>487</v>
       </c>
@@ -20313,7 +20337,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="45">
       <c r="A128" s="29" t="s">
         <v>487</v>
       </c>
@@ -20330,7 +20354,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="210">
       <c r="A129" s="29" t="s">
         <v>487</v>
       </c>
@@ -20347,7 +20371,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="90">
       <c r="A130" s="29" t="s">
         <v>487</v>
       </c>
@@ -20364,7 +20388,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="45">
       <c r="A131" s="29" t="s">
         <v>487</v>
       </c>
@@ -20381,7 +20405,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="75">
       <c r="A132" s="29" t="s">
         <v>487</v>
       </c>
@@ -20398,7 +20422,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="210">
       <c r="A133" s="29" t="s">
         <v>487</v>
       </c>
@@ -20415,7 +20439,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="75">
       <c r="A134" s="29" t="s">
         <v>487</v>
       </c>
@@ -20432,7 +20456,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="195">
       <c r="A135" s="29" t="s">
         <v>487</v>
       </c>
@@ -20449,7 +20473,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="30">
       <c r="A136" s="29" t="s">
         <v>487</v>
       </c>
@@ -20466,7 +20490,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="75">
       <c r="A137" s="29" t="s">
         <v>487</v>
       </c>
@@ -20483,7 +20507,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="90">
       <c r="A138" s="29" t="s">
         <v>487</v>
       </c>
@@ -20500,7 +20524,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="255">
       <c r="A139" s="29" t="s">
         <v>487</v>
       </c>
@@ -20517,7 +20541,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="29" t="s">
         <v>487</v>
       </c>
@@ -20534,7 +20558,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="29" t="s">
         <v>487</v>
       </c>
@@ -20551,7 +20575,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="30">
       <c r="A142" s="29" t="s">
         <v>487</v>
       </c>
@@ -20568,7 +20592,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="30">
       <c r="A143" s="29" t="s">
         <v>487</v>
       </c>
@@ -20585,7 +20609,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="45">
       <c r="A144" s="29" t="s">
         <v>487</v>
       </c>
@@ -20602,7 +20626,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="45">
       <c r="A145" s="29" t="s">
         <v>487</v>
       </c>
@@ -20619,7 +20643,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="45">
       <c r="A146" s="29" t="s">
         <v>487</v>
       </c>
@@ -20636,7 +20660,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="90">
       <c r="A147" s="29" t="s">
         <v>487</v>
       </c>
@@ -20653,7 +20677,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="45">
       <c r="A148" s="29" t="s">
         <v>487</v>
       </c>
@@ -20670,7 +20694,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="45">
       <c r="A149" s="29" t="s">
         <v>487</v>
       </c>
@@ -20687,7 +20711,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="60">
       <c r="A150" s="29" t="s">
         <v>487</v>
       </c>
@@ -20704,7 +20728,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="204" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="240">
       <c r="A151" s="29" t="s">
         <v>487</v>
       </c>
@@ -20721,7 +20745,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="75">
       <c r="A152" s="29" t="s">
         <v>487</v>
       </c>
@@ -20738,7 +20762,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="210">
       <c r="A153" s="29" t="s">
         <v>487</v>
       </c>
@@ -20755,7 +20779,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="30">
       <c r="A154" s="29" t="s">
         <v>487</v>
       </c>
@@ -20772,7 +20796,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="135">
       <c r="A155" s="29" t="s">
         <v>487</v>
       </c>
@@ -20789,7 +20813,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="29" t="s">
         <v>487</v>
       </c>
@@ -20806,7 +20830,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="153" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="135">
       <c r="A157" s="29" t="s">
         <v>487</v>
       </c>
@@ -20823,7 +20847,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="60">
       <c r="A158" s="29" t="s">
         <v>487</v>
       </c>
@@ -20840,7 +20864,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="60">
       <c r="A159" s="29" t="s">
         <v>487</v>
       </c>
@@ -20857,7 +20881,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="29" t="s">
         <v>487</v>
       </c>
@@ -20874,7 +20898,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="45">
       <c r="A161" s="29" t="s">
         <v>487</v>
       </c>
@@ -20891,7 +20915,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="240">
       <c r="A162" s="29" t="s">
         <v>487</v>
       </c>
@@ -20908,7 +20932,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="45">
       <c r="A163" s="29" t="s">
         <v>487</v>
       </c>
@@ -20925,7 +20949,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="30">
       <c r="A164" s="29" t="s">
         <v>487</v>
       </c>
@@ -20942,7 +20966,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="75">
       <c r="A165" s="29" t="s">
         <v>487</v>
       </c>
@@ -20959,7 +20983,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="45">
       <c r="A166" s="29" t="s">
         <v>487</v>
       </c>
@@ -20976,7 +21000,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="90">
       <c r="A167" s="29" t="s">
         <v>487</v>
       </c>
@@ -20993,7 +21017,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="45">
       <c r="A168" s="29" t="s">
         <v>487</v>
       </c>
@@ -21010,7 +21034,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="45">
       <c r="A169" s="29" t="s">
         <v>487</v>
       </c>
@@ -21027,7 +21051,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="195">
       <c r="A170" s="31" t="s">
         <v>487</v>
       </c>
@@ -21044,7 +21068,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="60">
       <c r="A171" s="31" t="s">
         <v>487</v>
       </c>
@@ -21061,7 +21085,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="60">
       <c r="A172" s="31" t="s">
         <v>487</v>
       </c>
@@ -21078,7 +21102,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="45">
       <c r="A173" s="31" t="s">
         <v>487</v>
       </c>
@@ -21095,7 +21119,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="30">
       <c r="A174" s="31" t="s">
         <v>487</v>
       </c>
@@ -21112,7 +21136,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="45">
       <c r="A175" s="31" t="s">
         <v>487</v>
       </c>
@@ -21129,7 +21153,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="195">
       <c r="A176" s="31" t="s">
         <v>487</v>
       </c>
@@ -21146,7 +21170,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="30">
       <c r="A177" s="31" t="s">
         <v>487</v>
       </c>
@@ -21163,7 +21187,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="75">
       <c r="A178" s="31" t="s">
         <v>487</v>
       </c>
@@ -21180,7 +21204,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="75">
       <c r="A179" s="31" t="s">
         <v>487</v>
       </c>
@@ -21197,7 +21221,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="31" t="s">
         <v>487</v>
       </c>
@@ -21214,7 +21238,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="45">
       <c r="A181" s="31" t="s">
         <v>487</v>
       </c>
@@ -21231,7 +21255,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="31" t="s">
         <v>487</v>
       </c>
@@ -21248,7 +21272,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="45">
       <c r="A183" s="31" t="s">
         <v>487</v>
       </c>
@@ -21265,7 +21289,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="31" t="s">
         <v>487</v>
       </c>
@@ -21282,7 +21306,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="31" t="s">
         <v>487</v>
       </c>
@@ -21299,7 +21323,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="31" t="s">
         <v>487</v>
       </c>
@@ -21316,7 +21340,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="31" t="s">
         <v>487</v>
       </c>
@@ -21333,7 +21357,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="45">
       <c r="A188" s="31" t="s">
         <v>487</v>
       </c>
@@ -21350,7 +21374,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="30">
       <c r="A189" s="31" t="s">
         <v>625</v>
       </c>
@@ -21367,7 +21391,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="30">
       <c r="A190" s="31" t="s">
         <v>487</v>
       </c>
@@ -21384,7 +21408,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="31" t="s">
         <v>487</v>
       </c>
@@ -21401,7 +21425,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="31" t="s">
         <v>487</v>
       </c>
@@ -21418,7 +21442,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="31" t="s">
         <v>487</v>
       </c>
@@ -21435,7 +21459,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="31" t="s">
         <v>487</v>
       </c>
@@ -21452,7 +21476,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="31" t="s">
         <v>487</v>
       </c>
@@ -21469,7 +21493,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="31" t="s">
         <v>487</v>
       </c>
@@ -21486,7 +21510,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="31" t="s">
         <v>487</v>
       </c>
@@ -21503,7 +21527,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="29" t="s">
         <v>227</v>
       </c>
@@ -21706,16 +21730,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -21735,7 +21759,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="82" t="s">
         <v>315</v>
       </c>
@@ -21752,7 +21776,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="80" t="s">
         <v>315</v>
       </c>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FBD4F-5C0C-C04C-9EB5-A3FD7C4C4AEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87927B4-36A6-4842-B137-24FA1E9A1760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority" sheetId="2" r:id="rId2"/>
-    <sheet name="Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="5" r:id="rId5"/>
-    <sheet name="NFTR-ALL" sheetId="17" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId7"/>
-    <sheet name="FTR-ALL" sheetId="18" r:id="rId8"/>
-    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId16"/>
-    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="20" r:id="rId2"/>
+    <sheet name="Priority" sheetId="2" r:id="rId3"/>
+    <sheet name="Headers" sheetId="3" r:id="rId4"/>
+    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId5"/>
+    <sheet name="FTRTickets-San" sheetId="5" r:id="rId6"/>
+    <sheet name="NFTR-ALL" sheetId="17" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId8"/>
+    <sheet name="FTR-ALL" sheetId="18" r:id="rId9"/>
+    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId17"/>
+    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId18"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId19"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4352" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1040">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3136,6 +3137,132 @@
   </si>
   <si>
     <t>Beta</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
@@ -3440,7 +3567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3619,6 +3746,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5529,7 +5659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5749,6 +5879,80 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -6053,7 +6257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6123,7 +6327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6196,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -6261,7 +6465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -6293,7 +6497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6385,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6456,7 +6660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -6842,7 +7046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -6920,7 +7124,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B1A84D-A493-794D-BEAA-45A48FD4F8C5}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="60" style="76" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="76"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C6" s="85"/>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C13" s="85"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C14" s="85"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -6974,7 +7358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -7024,7 +7408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -7625,7 +8009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG3"/>
   <sheetViews>
@@ -7888,7 +8272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -7965,7 +8349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL129"/>
   <sheetViews>
@@ -17656,7 +18040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BG129"/>
   <sheetViews>
@@ -18300,7 +18684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F198"/>
   <sheetViews>
@@ -21727,78 +22111,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>628</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87927B4-36A6-4842-B137-24FA1E9A1760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D3A3A-0144-154E-8C21-B0F994EA518A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="5460" windowWidth="20500" windowHeight="7760" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1049">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3085,9 +3085,6 @@
     <t>210321000131</t>
   </si>
   <si>
-    <t>210321000132</t>
-  </si>
-  <si>
     <t>CS Portal SMS Management</t>
   </si>
   <si>
@@ -3263,6 +3260,36 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3740,13 +3767,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3758,6 +3795,36 @@
     <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="157">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5298,36 +5365,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5764,7 +5801,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>893</v>
@@ -5786,7 +5823,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="78" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>906</v>
@@ -5819,7 +5856,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="78" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q4" s="18" t="s">
         <v>906</v>
@@ -5852,7 +5889,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="78" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>906</v>
@@ -5863,10 +5900,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" t="s">
+        <v>995</v>
+      </c>
+      <c r="C6" t="s">
         <v>996</v>
-      </c>
-      <c r="C6" t="s">
-        <v>997</v>
       </c>
       <c r="D6">
         <v>973099787</v>
@@ -5909,44 +5946,44 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="80" t="s">
         <v>626</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>626</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="80" t="s">
         <v>628</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6259,18 +6296,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -6283,8 +6321,11 @@
       <c r="D1" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="84" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="28" t="s">
         <v>207</v>
       </c>
@@ -6297,8 +6338,11 @@
       <c r="D2">
         <v>973099626</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="85" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="28" t="s">
         <v>210</v>
       </c>
@@ -6311,17 +6355,20 @@
       <c r="D3">
         <v>973099626</v>
       </c>
+      <c r="E3" s="85" t="s">
+        <v>989</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6428,7 +6475,7 @@
     </row>
     <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>114</v>
@@ -6591,10 +6638,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6603,55 +6650,234 @@
     <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="34">
+      <c r="A1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="86" t="s">
         <v>976</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="86" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" ht="34">
+      <c r="A2" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17">
-      <c r="A3" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33">
+      <c r="A3" s="49" t="s">
         <v>975</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="87" t="s">
+        <v>987</v>
+      </c>
+      <c r="I3" s="87" t="s">
         <v>988</v>
       </c>
-      <c r="I3" s="84" t="s">
-        <v>989</v>
+      <c r="J3" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32">
+      <c r="A4" s="49" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32">
+      <c r="A8" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48">
+      <c r="A10" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32">
+      <c r="A12" s="49" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32">
+      <c r="A13" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7128,7 +7354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B1A84D-A493-794D-BEAA-45A48FD4F8C5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7142,161 +7368,161 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>998</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>999</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>1001</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>1002</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1004</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>1005</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>1007</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>1008</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>1010</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>1011</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1013</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="83"/>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>1015</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>1016</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>1019</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>1021</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>1022</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
       <c r="A10" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>1024</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>1025</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>1027</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>1028</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>1030</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>1031</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>1033</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="83"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>1035</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="83"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>1037</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>1038</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -7975,25 +8201,25 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="44" t="s">
+        <v>981</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>982</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>983</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="E20" s="44" t="s">
         <v>984</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="F20" s="44" t="s">
         <v>985</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="G20" s="44" t="s">
         <v>986</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>987</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -8011,10 +8237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BG3"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="A1:BG3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8199,19 +8425,19 @@
       </c>
     </row>
     <row r="2" spans="1:59">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>766</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>834</v>
       </c>
       <c r="AV2" t="s">
@@ -8230,43 +8456,11 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>833</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>882</v>
-      </c>
-      <c r="AW3" s="73">
-        <v>48</v>
-      </c>
-      <c r="BD3" s="73">
-        <v>48</v>
-      </c>
-      <c r="BE3" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>980</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="156" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="84"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="156" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="90"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8274,10 +8468,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8306,44 +8500,27 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>628</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="153" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="87"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="2" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17816,225 +17993,225 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="150" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="duplicateValues" dxfId="149" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E129">
-    <cfRule type="duplicateValues" dxfId="148" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="145" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35 E6">
-    <cfRule type="duplicateValues" dxfId="144" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16 E10 E8">
-    <cfRule type="duplicateValues" dxfId="143" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="142" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="141" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E12">
-    <cfRule type="duplicateValues" dxfId="140" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="139" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="duplicateValues" dxfId="138" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="137" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="136" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="135" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="134" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34 E25:E30">
-    <cfRule type="duplicateValues" dxfId="133" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="132" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="duplicateValues" dxfId="131" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="duplicateValues" dxfId="130" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E37">
-    <cfRule type="duplicateValues" dxfId="129" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="128" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="127" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="126" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="125" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="124" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E46">
-    <cfRule type="duplicateValues" dxfId="123" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="122" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="121" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="duplicateValues" dxfId="120" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E55 E50">
-    <cfRule type="duplicateValues" dxfId="119" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="duplicateValues" dxfId="118" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="117" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="116" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E60">
-    <cfRule type="duplicateValues" dxfId="115" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="duplicateValues" dxfId="114" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="113" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="112" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="111" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="110" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="duplicateValues" dxfId="109" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="108" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="duplicateValues" dxfId="107" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="duplicateValues" dxfId="106" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="105" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="duplicateValues" dxfId="104" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="duplicateValues" dxfId="103" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="102" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="duplicateValues" dxfId="101" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="100" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="duplicateValues" dxfId="99" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="duplicateValues" dxfId="98" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="duplicateValues" dxfId="97" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="duplicateValues" dxfId="96" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="95" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82:E86">
-    <cfRule type="duplicateValues" dxfId="94" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="duplicateValues" dxfId="93" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="duplicateValues" dxfId="91" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="duplicateValues" dxfId="90" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="duplicateValues" dxfId="89" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="duplicateValues" dxfId="88" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="duplicateValues" dxfId="87" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="duplicateValues" dxfId="86" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="duplicateValues" dxfId="84" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="82" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23">
-    <cfRule type="duplicateValues" dxfId="81" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28:AA36">
-    <cfRule type="duplicateValues" dxfId="80" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37:AA38">
-    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA40:AA64">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA65:AA117">
-    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18233,19 +18410,19 @@
       </c>
     </row>
     <row r="2" spans="1:59">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>766</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>834</v>
       </c>
       <c r="AV2" t="s">
@@ -18261,23 +18438,23 @@
         <v>197</v>
       </c>
       <c r="BG2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:59">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>644</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="82" t="s">
         <v>833</v>
       </c>
       <c r="AV3" t="s">
@@ -18293,7 +18470,7 @@
         <v>197</v>
       </c>
       <c r="BG3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -18676,9 +18853,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21930,184 +22107,184 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E96:E198 E2:E93">
-    <cfRule type="duplicateValues" dxfId="72" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="68" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="duplicateValues" dxfId="67" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="66" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="63" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="62" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="61" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E25">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 E29:E30">
-    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34">
-    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E45">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E51">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:E62">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:E74">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:E76">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D3A3A-0144-154E-8C21-B0F994EA518A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="5460" windowWidth="20500" windowHeight="7760" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="5460" windowWidth="20505" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="1061">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3291,12 +3290,48 @@
   <si>
     <t>changeServiceClass</t>
   </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3789,42 +3824,12 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
   <dxfs count="157">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5365,6 +5370,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5398,7 +5433,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5693,22 +5728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
@@ -5761,7 +5796,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2394650</v>
       </c>
@@ -5796,7 +5831,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2388192</v>
       </c>
@@ -5829,7 +5864,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>23103239</v>
       </c>
@@ -5862,7 +5897,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2394650</v>
       </c>
@@ -5895,7 +5930,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13221514</v>
       </c>
@@ -5916,16 +5951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -5945,7 +5980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>315</v>
       </c>
@@ -5962,7 +5997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>315</v>
       </c>
@@ -5981,25 +6016,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>94</v>
       </c>
@@ -6010,7 +6045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>161</v>
       </c>
@@ -6021,7 +6056,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>162</v>
       </c>
@@ -6032,7 +6067,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>163</v>
       </c>
@@ -6043,7 +6078,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>164</v>
       </c>
@@ -6054,7 +6089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>165</v>
       </c>
@@ -6065,7 +6100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>167</v>
       </c>
@@ -6073,7 +6108,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>167</v>
       </c>
@@ -6081,7 +6116,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>167</v>
       </c>
@@ -6089,7 +6124,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>167</v>
       </c>
@@ -6097,7 +6132,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>168</v>
       </c>
@@ -6105,7 +6140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -6113,7 +6148,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>168</v>
       </c>
@@ -6121,7 +6156,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>168</v>
       </c>
@@ -6129,7 +6164,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>168</v>
       </c>
@@ -6137,7 +6172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>169</v>
       </c>
@@ -6145,7 +6180,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>169</v>
       </c>
@@ -6153,7 +6188,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>169</v>
       </c>
@@ -6161,7 +6196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>169</v>
       </c>
@@ -6169,7 +6204,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="45">
+    <row r="20" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>170</v>
       </c>
@@ -6177,7 +6212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="45">
+    <row r="21" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>170</v>
       </c>
@@ -6185,7 +6220,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>171</v>
       </c>
@@ -6193,7 +6228,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>171</v>
       </c>
@@ -6201,7 +6236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30">
+    <row r="24" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>172</v>
       </c>
@@ -6209,7 +6244,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30">
+    <row r="25" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>172</v>
       </c>
@@ -6217,7 +6252,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="30">
+    <row r="26" spans="2:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>173</v>
       </c>
@@ -6225,7 +6260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>174</v>
       </c>
@@ -6233,7 +6268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>169</v>
       </c>
@@ -6241,7 +6276,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>169</v>
       </c>
@@ -6249,7 +6284,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>175</v>
       </c>
@@ -6257,7 +6292,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="30">
+    <row r="31" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
         <v>172</v>
       </c>
@@ -6265,7 +6300,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>171</v>
       </c>
@@ -6273,7 +6308,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>168</v>
       </c>
@@ -6281,7 +6316,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>166</v>
       </c>
@@ -6295,20 +6330,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -6325,7 +6360,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>207</v>
       </c>
@@ -6342,7 +6377,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>210</v>
       </c>
@@ -6361,30 +6396,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -6395,7 +6430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>104</v>
       </c>
@@ -6404,7 +6439,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
@@ -6413,7 +6448,7 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>107</v>
       </c>
@@ -6422,7 +6457,7 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>108</v>
       </c>
@@ -6431,7 +6466,7 @@
       </c>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>109</v>
       </c>
@@ -6448,16 +6483,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>110</v>
       </c>
@@ -6465,7 +6500,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
@@ -6473,7 +6508,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>980</v>
       </c>
@@ -6481,7 +6516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
@@ -6489,19 +6524,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -6513,16 +6548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -6545,19 +6580,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>125</v>
       </c>
@@ -6598,7 +6633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="160">
+    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>220</v>
       </c>
@@ -6637,20 +6672,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>138</v>
       </c>
@@ -6680,7 +6715,7 @@
       </c>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="1:10" ht="34">
+    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>145</v>
       </c>
@@ -6700,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33">
+    <row r="3" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>975</v>
       </c>
@@ -6720,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>1039</v>
       </c>
@@ -6736,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>1040</v>
       </c>
@@ -6752,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>1041</v>
       </c>
@@ -6768,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>1042</v>
       </c>
@@ -6784,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="32">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>1043</v>
       </c>
@@ -6800,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>1044</v>
       </c>
@@ -6816,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>1045</v>
       </c>
@@ -6832,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>1046</v>
       </c>
@@ -6848,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="32">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>1047</v>
       </c>
@@ -6864,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>1048</v>
       </c>
@@ -6887,16 +6922,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>148</v>
       </c>
@@ -6931,7 +6966,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>212</v>
       </c>
@@ -6945,7 +6980,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -6959,7 +6994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -6973,7 +7008,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -6987,7 +7022,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -7001,7 +7036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -7015,7 +7050,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -7029,7 +7064,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -7043,7 +7078,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -7057,7 +7092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -7071,7 +7106,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -7085,7 +7120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -7099,7 +7134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -7113,7 +7148,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -7127,7 +7162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -7141,7 +7176,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -7155,7 +7190,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -7169,7 +7204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>195</v>
       </c>
@@ -7183,7 +7218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>196</v>
       </c>
@@ -7197,7 +7232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>197</v>
       </c>
@@ -7211,7 +7246,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -7225,7 +7260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -7239,7 +7274,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -7253,7 +7288,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -7273,16 +7308,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>148</v>
       </c>
@@ -7317,7 +7352,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -7331,7 +7366,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -7351,22 +7386,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B1A84D-A493-794D-BEAA-45A48FD4F8C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="76" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="76" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="76" customWidth="1"/>
     <col min="3" max="3" width="60" style="76" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="76"/>
+    <col min="4" max="16384" width="10.85546875" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>997</v>
       </c>
@@ -7377,7 +7412,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1000</v>
       </c>
@@ -7388,7 +7423,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1003</v>
       </c>
@@ -7399,7 +7434,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1006</v>
       </c>
@@ -7410,7 +7445,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1009</v>
       </c>
@@ -7421,7 +7456,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1012</v>
       </c>
@@ -7430,7 +7465,7 @@
       </c>
       <c r="C6" s="83"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1014</v>
       </c>
@@ -7441,7 +7476,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>1017</v>
       </c>
@@ -7452,7 +7487,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>1020</v>
       </c>
@@ -7463,7 +7498,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>1023</v>
       </c>
@@ -7474,7 +7509,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>1026</v>
       </c>
@@ -7485,7 +7520,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>1029</v>
       </c>
@@ -7496,7 +7531,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>1032</v>
       </c>
@@ -7505,7 +7540,7 @@
       </c>
       <c r="C13" s="83"/>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>1034</v>
       </c>
@@ -7514,7 +7549,7 @@
       </c>
       <c r="C14" s="83"/>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>1036</v>
       </c>
@@ -7531,21 +7566,21 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4" collapsed="1"/>
+    <col min="1" max="1" width="26.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
@@ -7556,7 +7591,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>176</v>
       </c>
@@ -7567,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>184</v>
       </c>
@@ -7585,46 +7620,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -7635,16 +7670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
@@ -7685,7 +7720,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
@@ -7712,7 +7747,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>36</v>
       </c>
@@ -7739,7 +7774,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="48">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
@@ -7766,7 +7801,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>43</v>
       </c>
@@ -7799,7 +7834,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>49</v>
       </c>
@@ -7824,7 +7859,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>51</v>
       </c>
@@ -7849,7 +7884,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -7876,7 +7911,7 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>56</v>
       </c>
@@ -7903,7 +7938,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>916</v>
       </c>
@@ -7930,7 +7965,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>921</v>
       </c>
@@ -7957,7 +7992,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>927</v>
       </c>
@@ -7988,7 +8023,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>935</v>
       </c>
@@ -8013,7 +8048,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="48">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>940</v>
       </c>
@@ -8050,7 +8085,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>945</v>
       </c>
@@ -8081,7 +8116,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>948</v>
       </c>
@@ -8106,7 +8141,7 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>952</v>
       </c>
@@ -8131,7 +8166,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>957</v>
       </c>
@@ -8158,7 +8193,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="48">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>960</v>
       </c>
@@ -8199,7 +8234,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>981</v>
       </c>
@@ -8227,6 +8262,70 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8236,16 +8335,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="16">
+    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
@@ -8424,7 +8523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>402</v>
       </c>
@@ -8467,19 +8566,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -8499,7 +8598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>315</v>
       </c>
@@ -8518,25 +8617,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="2" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="93"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -8652,7 +8751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="60">
+    <row r="2" spans="1:38" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>402</v>
       </c>
@@ -8729,7 +8828,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="32">
+    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>402</v>
       </c>
@@ -8806,7 +8905,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="32">
+    <row r="4" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>402</v>
       </c>
@@ -8883,7 +8982,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="75">
+    <row r="5" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>402</v>
       </c>
@@ -8960,7 +9059,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="285">
+    <row r="6" spans="1:38" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>402</v>
       </c>
@@ -9037,7 +9136,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="45">
+    <row r="7" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>402</v>
       </c>
@@ -9114,7 +9213,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>402</v>
       </c>
@@ -9187,7 +9286,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="195">
+    <row r="9" spans="1:38" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>402</v>
       </c>
@@ -9264,7 +9363,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="60">
+    <row r="10" spans="1:38" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>402</v>
       </c>
@@ -9339,7 +9438,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="60">
+    <row r="11" spans="1:38" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>402</v>
       </c>
@@ -9414,7 +9513,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="180">
+    <row r="12" spans="1:38" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>402</v>
       </c>
@@ -9489,7 +9588,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="105">
+    <row r="13" spans="1:38" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>402</v>
       </c>
@@ -9564,7 +9663,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="45">
+    <row r="14" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>402</v>
       </c>
@@ -9639,7 +9738,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="180">
+    <row r="15" spans="1:38" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>402</v>
       </c>
@@ -9714,7 +9813,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="225">
+    <row r="16" spans="1:38" ht="204" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>402</v>
       </c>
@@ -9789,7 +9888,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="45">
+    <row r="17" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>402</v>
       </c>
@@ -9864,7 +9963,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="135">
+    <row r="18" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>402</v>
       </c>
@@ -9939,7 +10038,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="75">
+    <row r="19" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>402</v>
       </c>
@@ -10014,7 +10113,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="45">
+    <row r="20" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>402</v>
       </c>
@@ -10089,7 +10188,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="60">
+    <row r="21" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>402</v>
       </c>
@@ -10164,7 +10263,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="45">
+    <row r="22" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>402</v>
       </c>
@@ -10239,7 +10338,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="75">
+    <row r="23" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>402</v>
       </c>
@@ -10314,7 +10413,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="150">
+    <row r="24" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>402</v>
       </c>
@@ -10389,7 +10488,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="135">
+    <row r="25" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>402</v>
       </c>
@@ -10464,7 +10563,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="105">
+    <row r="26" spans="1:37" ht="102" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>402</v>
       </c>
@@ -10539,7 +10638,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="150">
+    <row r="27" spans="1:37" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>402</v>
       </c>
@@ -10614,7 +10713,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="105">
+    <row r="28" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>402</v>
       </c>
@@ -10689,7 +10788,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="90">
+    <row r="29" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>402</v>
       </c>
@@ -10764,7 +10863,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="105">
+    <row r="30" spans="1:37" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>402</v>
       </c>
@@ -10839,7 +10938,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="210">
+    <row r="31" spans="1:37" ht="204" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>402</v>
       </c>
@@ -10914,7 +11013,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="30">
+    <row r="32" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>402</v>
       </c>
@@ -10989,7 +11088,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="45">
+    <row r="33" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>402</v>
       </c>
@@ -11064,7 +11163,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="210">
+    <row r="34" spans="1:37" ht="204" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>402</v>
       </c>
@@ -11139,7 +11238,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="45">
+    <row r="35" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>402</v>
       </c>
@@ -11214,7 +11313,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="90">
+    <row r="36" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>402</v>
       </c>
@@ -11289,7 +11388,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="210">
+    <row r="37" spans="1:37" ht="204" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>402</v>
       </c>
@@ -11364,7 +11463,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="195">
+    <row r="38" spans="1:37" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>402</v>
       </c>
@@ -11439,7 +11538,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="30">
+    <row r="39" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>402</v>
       </c>
@@ -11514,7 +11613,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="255">
+    <row r="40" spans="1:37" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>402</v>
       </c>
@@ -11544,7 +11643,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="30">
+    <row r="41" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>402</v>
       </c>
@@ -11619,7 +11718,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="30">
+    <row r="42" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>402</v>
       </c>
@@ -11694,7 +11793,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="45">
+    <row r="43" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>402</v>
       </c>
@@ -11769,7 +11868,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="45">
+    <row r="44" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>402</v>
       </c>
@@ -11844,7 +11943,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="45">
+    <row r="45" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>402</v>
       </c>
@@ -11919,7 +12018,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="45">
+    <row r="46" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>402</v>
       </c>
@@ -11994,7 +12093,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="45">
+    <row r="47" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>402</v>
       </c>
@@ -12069,7 +12168,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="240">
+    <row r="48" spans="1:37" ht="204" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>402</v>
       </c>
@@ -12144,7 +12243,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="210">
+    <row r="49" spans="1:37" ht="204" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>402</v>
       </c>
@@ -12219,7 +12318,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="30">
+    <row r="50" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>402</v>
       </c>
@@ -12294,7 +12393,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>402</v>
       </c>
@@ -12369,7 +12468,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="135">
+    <row r="52" spans="1:37" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>402</v>
       </c>
@@ -12444,7 +12543,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="90">
+    <row r="53" spans="1:37" ht="102" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>402</v>
       </c>
@@ -12519,7 +12618,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="60">
+    <row r="54" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>402</v>
       </c>
@@ -12594,7 +12693,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="60">
+    <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>402</v>
       </c>
@@ -12669,7 +12768,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="45">
+    <row r="56" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>402</v>
       </c>
@@ -12744,7 +12843,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="240">
+    <row r="57" spans="1:37" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>402</v>
       </c>
@@ -12819,7 +12918,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="150">
+    <row r="58" spans="1:37" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>315</v>
       </c>
@@ -12894,7 +12993,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="45">
+    <row r="59" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>315</v>
       </c>
@@ -12969,7 +13068,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="165">
+    <row r="60" spans="1:37" ht="153" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>402</v>
       </c>
@@ -13044,7 +13143,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="45">
+    <row r="61" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>402</v>
       </c>
@@ -13119,7 +13218,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="45">
+    <row r="62" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>402</v>
       </c>
@@ -13194,7 +13293,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="195">
+    <row r="63" spans="1:37" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>402</v>
       </c>
@@ -13269,7 +13368,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="90">
+    <row r="64" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>402</v>
       </c>
@@ -13344,7 +13443,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="45">
+    <row r="65" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>402</v>
       </c>
@@ -13419,7 +13518,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="30">
+    <row r="66" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>402</v>
       </c>
@@ -13494,7 +13593,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="60">
+    <row r="67" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>402</v>
       </c>
@@ -13569,7 +13668,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="45">
+    <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>402</v>
       </c>
@@ -13644,7 +13743,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="60">
+    <row r="69" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>402</v>
       </c>
@@ -13719,7 +13818,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="30">
+    <row r="70" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>402</v>
       </c>
@@ -13794,7 +13893,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="45">
+    <row r="71" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>402</v>
       </c>
@@ -13869,7 +13968,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="45">
+    <row r="72" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>402</v>
       </c>
@@ -13944,7 +14043,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="195">
+    <row r="73" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>402</v>
       </c>
@@ -14019,7 +14118,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="90">
+    <row r="74" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>402</v>
       </c>
@@ -14094,7 +14193,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="45">
+    <row r="75" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>402</v>
       </c>
@@ -14169,7 +14268,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="30">
+    <row r="76" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>402</v>
       </c>
@@ -14244,7 +14343,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>402</v>
       </c>
@@ -14319,7 +14418,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="45">
+    <row r="78" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>402</v>
       </c>
@@ -14394,7 +14493,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="60">
+    <row r="79" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>402</v>
       </c>
@@ -14469,7 +14568,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="60">
+    <row r="80" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>402</v>
       </c>
@@ -14544,7 +14643,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="45">
+    <row r="81" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>402</v>
       </c>
@@ -14619,7 +14718,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="45">
+    <row r="82" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>402</v>
       </c>
@@ -14694,7 +14793,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="30">
+    <row r="83" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>402</v>
       </c>
@@ -14769,7 +14868,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="30">
+    <row r="84" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>402</v>
       </c>
@@ -14844,7 +14943,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="45">
+    <row r="85" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>402</v>
       </c>
@@ -14919,7 +15018,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="30">
+    <row r="86" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>402</v>
       </c>
@@ -14994,7 +15093,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="45">
+    <row r="87" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>402</v>
       </c>
@@ -15069,7 +15168,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="30">
+    <row r="88" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>402</v>
       </c>
@@ -15144,7 +15243,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="45">
+    <row r="89" spans="1:37" ht="39" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>402</v>
       </c>
@@ -15219,7 +15318,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>402</v>
       </c>
@@ -15294,7 +15393,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="30">
+    <row r="91" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>402</v>
       </c>
@@ -15369,7 +15468,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="30">
+    <row r="92" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>402</v>
       </c>
@@ -15444,7 +15543,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="60">
+    <row r="93" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>402</v>
       </c>
@@ -15519,7 +15618,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="45">
+    <row r="94" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>402</v>
       </c>
@@ -15594,7 +15693,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="45">
+    <row r="95" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>402</v>
       </c>
@@ -15669,7 +15768,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="30">
+    <row r="96" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>402</v>
       </c>
@@ -15744,7 +15843,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="30">
+    <row r="97" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
         <v>402</v>
       </c>
@@ -15819,7 +15918,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="30">
+    <row r="98" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>402</v>
       </c>
@@ -15894,7 +15993,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="30">
+    <row r="99" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
         <v>402</v>
       </c>
@@ -15969,7 +16068,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="30">
+    <row r="100" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
         <v>402</v>
       </c>
@@ -16044,7 +16143,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
         <v>402</v>
       </c>
@@ -16119,7 +16218,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="45">
+    <row r="102" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>402</v>
       </c>
@@ -16194,7 +16293,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="60">
+    <row r="103" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
         <v>402</v>
       </c>
@@ -16269,7 +16368,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="75">
+    <row r="104" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
         <v>402</v>
       </c>
@@ -16344,7 +16443,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="60">
+    <row r="105" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>402</v>
       </c>
@@ -16419,7 +16518,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="30">
+    <row r="106" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
         <v>402</v>
       </c>
@@ -16494,7 +16593,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="45">
+    <row r="107" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>402</v>
       </c>
@@ -16569,7 +16668,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="30">
+    <row r="108" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
         <v>402</v>
       </c>
@@ -16644,7 +16743,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="48">
+    <row r="109" spans="1:37" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
         <v>402</v>
       </c>
@@ -16721,7 +16820,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="64">
+    <row r="110" spans="1:37" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
         <v>402</v>
       </c>
@@ -16798,7 +16897,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="48">
+    <row r="111" spans="1:37" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>402</v>
       </c>
@@ -16875,7 +16974,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="75">
+    <row r="112" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
         <v>402</v>
       </c>
@@ -16952,7 +17051,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="45">
+    <row r="113" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
         <v>402</v>
       </c>
@@ -17029,7 +17128,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="32">
+    <row r="114" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
         <v>402</v>
       </c>
@@ -17106,7 +17205,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="30">
+    <row r="115" spans="1:37" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
         <v>402</v>
       </c>
@@ -17183,7 +17282,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="32">
+    <row r="116" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
         <v>402</v>
       </c>
@@ -17260,7 +17359,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="60">
+    <row r="117" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
         <v>402</v>
       </c>
@@ -17337,7 +17436,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="60">
+    <row r="118" spans="1:37" ht="51" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
         <v>315</v>
       </c>
@@ -17393,7 +17492,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="60">
+    <row r="119" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
         <v>402</v>
       </c>
@@ -17449,7 +17548,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="285">
+    <row r="120" spans="1:37" ht="255" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
         <v>315</v>
       </c>
@@ -17505,7 +17604,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="210">
+    <row r="121" spans="1:37" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
         <v>836</v>
       </c>
@@ -17543,7 +17642,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="135">
+    <row r="122" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
         <v>402</v>
       </c>
@@ -17599,7 +17698,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="45">
+    <row r="123" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
         <v>402</v>
       </c>
@@ -17655,7 +17754,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="75">
+    <row r="124" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>402</v>
       </c>
@@ -17720,7 +17819,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="45">
+    <row r="125" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>402</v>
       </c>
@@ -17785,7 +17884,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:37">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
         <v>846</v>
       </c>
@@ -17841,7 +17940,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="30">
+    <row r="127" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>846</v>
       </c>
@@ -17897,7 +17996,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:37">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>846</v>
       </c>
@@ -17953,7 +18052,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="30">
+    <row r="129" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>402</v>
       </c>
@@ -17993,244 +18092,244 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="153" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="duplicateValues" dxfId="152" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E129">
-    <cfRule type="duplicateValues" dxfId="151" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="148" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35 E6">
-    <cfRule type="duplicateValues" dxfId="147" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16 E10 E8">
-    <cfRule type="duplicateValues" dxfId="146" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="145" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="144" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E12">
-    <cfRule type="duplicateValues" dxfId="143" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="142" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="duplicateValues" dxfId="141" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="140" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="139" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="138" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="137" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34 E25:E30">
-    <cfRule type="duplicateValues" dxfId="136" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="135" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="duplicateValues" dxfId="134" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="duplicateValues" dxfId="133" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E37">
-    <cfRule type="duplicateValues" dxfId="132" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="131" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="130" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="129" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="128" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="127" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E46">
-    <cfRule type="duplicateValues" dxfId="126" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="125" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="124" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="duplicateValues" dxfId="123" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E55 E50">
-    <cfRule type="duplicateValues" dxfId="122" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="duplicateValues" dxfId="121" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="120" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="119" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E60">
-    <cfRule type="duplicateValues" dxfId="118" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="duplicateValues" dxfId="117" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="116" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="115" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="114" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="113" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:E67">
-    <cfRule type="duplicateValues" dxfId="112" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="111" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="duplicateValues" dxfId="110" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="duplicateValues" dxfId="109" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="108" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="duplicateValues" dxfId="107" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="duplicateValues" dxfId="106" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="105" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="duplicateValues" dxfId="104" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="103" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="duplicateValues" dxfId="102" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="duplicateValues" dxfId="101" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="duplicateValues" dxfId="100" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="duplicateValues" dxfId="99" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="98" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82:E86">
-    <cfRule type="duplicateValues" dxfId="97" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="duplicateValues" dxfId="96" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="duplicateValues" dxfId="95" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="duplicateValues" dxfId="94" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="duplicateValues" dxfId="93" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="duplicateValues" dxfId="92" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="duplicateValues" dxfId="91" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="duplicateValues" dxfId="90" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="duplicateValues" dxfId="89" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="88" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="duplicateValues" dxfId="87" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="duplicateValues" dxfId="86" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="duplicateValues" dxfId="85" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23">
-    <cfRule type="duplicateValues" dxfId="84" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28:AA36">
-    <cfRule type="duplicateValues" dxfId="83" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37:AA38">
-    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="duplicateValues" dxfId="81" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA40:AA64">
-    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA65:AA117">
-    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="74" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16">
+    <row r="1" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
@@ -18409,7 +18508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>402</v>
       </c>
@@ -18441,7 +18540,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>315</v>
       </c>
@@ -18473,405 +18572,405 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -18891,7 +18990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>227</v>
       </c>
@@ -18911,7 +19010,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>227</v>
       </c>
@@ -18928,7 +19027,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>227</v>
       </c>
@@ -18941,7 +19040,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>227</v>
       </c>
@@ -18954,7 +19053,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>227</v>
       </c>
@@ -18969,7 +19068,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>227</v>
       </c>
@@ -18984,7 +19083,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>227</v>
       </c>
@@ -18999,7 +19098,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
+    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>227</v>
       </c>
@@ -19014,7 +19113,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row r="10" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>227</v>
       </c>
@@ -19029,7 +19128,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="90">
+    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>227</v>
       </c>
@@ -19044,7 +19143,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>227</v>
       </c>
@@ -19059,7 +19158,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75">
+    <row r="13" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>227</v>
       </c>
@@ -19074,7 +19173,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>227</v>
       </c>
@@ -19089,7 +19188,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>227</v>
       </c>
@@ -19104,7 +19203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>227</v>
       </c>
@@ -19119,7 +19218,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>227</v>
       </c>
@@ -19134,7 +19233,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>227</v>
       </c>
@@ -19149,7 +19248,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>227</v>
       </c>
@@ -19164,7 +19263,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60">
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>227</v>
       </c>
@@ -19179,7 +19278,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>227</v>
       </c>
@@ -19194,7 +19293,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60">
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>227</v>
       </c>
@@ -19209,7 +19308,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>227</v>
       </c>
@@ -19224,7 +19323,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>227</v>
       </c>
@@ -19239,7 +19338,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>227</v>
       </c>
@@ -19254,7 +19353,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60">
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>227</v>
       </c>
@@ -19269,7 +19368,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60">
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>227</v>
       </c>
@@ -19284,7 +19383,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>227</v>
       </c>
@@ -19299,7 +19398,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75">
+    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>227</v>
       </c>
@@ -19314,7 +19413,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90">
+    <row r="30" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>227</v>
       </c>
@@ -19329,7 +19428,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="75">
+    <row r="31" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>227</v>
       </c>
@@ -19344,7 +19443,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45">
+    <row r="32" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>227</v>
       </c>
@@ -19359,7 +19458,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>227</v>
       </c>
@@ -19374,7 +19473,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>227</v>
       </c>
@@ -19389,7 +19488,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="75">
+    <row r="35" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>227</v>
       </c>
@@ -19404,7 +19503,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="75">
+    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>227</v>
       </c>
@@ -19419,7 +19518,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="90">
+    <row r="37" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>227</v>
       </c>
@@ -19434,7 +19533,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60">
+    <row r="38" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>227</v>
       </c>
@@ -19449,7 +19548,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45">
+    <row r="39" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>227</v>
       </c>
@@ -19464,7 +19563,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75">
+    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>227</v>
       </c>
@@ -19479,7 +19578,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="135">
+    <row r="41" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>227</v>
       </c>
@@ -19494,7 +19593,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>227</v>
       </c>
@@ -19509,7 +19608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45">
+    <row r="43" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>315</v>
       </c>
@@ -19524,7 +19623,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>315</v>
       </c>
@@ -19539,7 +19638,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="75">
+    <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>315</v>
       </c>
@@ -19554,7 +19653,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="90">
+    <row r="46" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>227</v>
       </c>
@@ -19569,7 +19668,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>227</v>
       </c>
@@ -19584,7 +19683,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60">
+    <row r="48" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>227</v>
       </c>
@@ -19599,7 +19698,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45">
+    <row r="49" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>227</v>
       </c>
@@ -19614,7 +19713,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30">
+    <row r="50" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>227</v>
       </c>
@@ -19629,7 +19728,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>227</v>
       </c>
@@ -19644,7 +19743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>227</v>
       </c>
@@ -19659,7 +19758,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30">
+    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>227</v>
       </c>
@@ -19674,7 +19773,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="45">
+    <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>227</v>
       </c>
@@ -19689,7 +19788,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30">
+    <row r="55" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>227</v>
       </c>
@@ -19704,7 +19803,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>227</v>
       </c>
@@ -19719,7 +19818,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30">
+    <row r="57" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>227</v>
       </c>
@@ -19734,7 +19833,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>227</v>
       </c>
@@ -19749,7 +19848,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45">
+    <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>227</v>
       </c>
@@ -19764,7 +19863,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30">
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>227</v>
       </c>
@@ -19779,7 +19878,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60">
+    <row r="61" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>227</v>
       </c>
@@ -19794,7 +19893,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60">
+    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>227</v>
       </c>
@@ -19809,7 +19908,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45">
+    <row r="63" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>227</v>
       </c>
@@ -19824,7 +19923,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>227</v>
       </c>
@@ -19839,7 +19938,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30">
+    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>227</v>
       </c>
@@ -19854,7 +19953,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60">
+    <row r="66" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="29" t="s">
         <v>227</v>
       </c>
@@ -19869,7 +19968,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="75">
+    <row r="67" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>227</v>
       </c>
@@ -19884,7 +19983,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>227</v>
       </c>
@@ -19899,7 +19998,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30">
+    <row r="69" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>227</v>
       </c>
@@ -19914,7 +20013,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
         <v>227</v>
       </c>
@@ -19931,7 +20030,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30">
+    <row r="71" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>227</v>
       </c>
@@ -19946,7 +20045,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="45">
+    <row r="72" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>227</v>
       </c>
@@ -19963,7 +20062,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30">
+    <row r="73" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>227</v>
       </c>
@@ -19980,7 +20079,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="32">
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>227</v>
       </c>
@@ -19997,7 +20096,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30">
+    <row r="75" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>402</v>
       </c>
@@ -20014,7 +20113,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>227</v>
       </c>
@@ -20031,7 +20130,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="75">
+    <row r="77" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>227</v>
       </c>
@@ -20048,7 +20147,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>227</v>
       </c>
@@ -20065,7 +20164,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>227</v>
       </c>
@@ -20082,7 +20181,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="32">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="29" t="s">
         <v>227</v>
       </c>
@@ -20099,7 +20198,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>227</v>
       </c>
@@ -20116,7 +20215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="32">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>227</v>
       </c>
@@ -20133,7 +20232,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="48">
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>227</v>
       </c>
@@ -20150,7 +20249,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="32">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>227</v>
       </c>
@@ -20167,7 +20266,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="32">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>227</v>
       </c>
@@ -20184,7 +20283,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30">
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>227</v>
       </c>
@@ -20201,7 +20300,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="45">
+    <row r="87" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>227</v>
       </c>
@@ -20218,7 +20317,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30">
+    <row r="88" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>227</v>
       </c>
@@ -20235,7 +20334,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45">
+    <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>227</v>
       </c>
@@ -20252,7 +20351,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30">
+    <row r="90" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>227</v>
       </c>
@@ -20269,7 +20368,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30">
+    <row r="91" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>227</v>
       </c>
@@ -20286,7 +20385,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="45">
+    <row r="92" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>227</v>
       </c>
@@ -20303,7 +20402,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30">
+    <row r="93" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>227</v>
       </c>
@@ -20320,7 +20419,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>227</v>
       </c>
@@ -20337,7 +20436,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>227</v>
       </c>
@@ -20354,7 +20453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="45">
+    <row r="96" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>446</v>
       </c>
@@ -20371,7 +20470,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30">
+    <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
         <v>315</v>
       </c>
@@ -20388,7 +20487,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60">
+    <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>315</v>
       </c>
@@ -20405,7 +20504,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="60">
+    <row r="99" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
         <v>315</v>
       </c>
@@ -20422,7 +20521,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="60">
+    <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
         <v>315</v>
       </c>
@@ -20439,7 +20538,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="180">
+    <row r="101" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
         <v>315</v>
       </c>
@@ -20456,7 +20555,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45">
+    <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>315</v>
       </c>
@@ -20473,7 +20572,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
         <v>460</v>
       </c>
@@ -20490,7 +20589,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
         <v>460</v>
       </c>
@@ -20507,7 +20606,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="90">
+    <row r="105" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>460</v>
       </c>
@@ -20524,7 +20623,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="45">
+    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
         <v>315</v>
       </c>
@@ -20541,7 +20640,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="180">
+    <row r="107" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>315</v>
       </c>
@@ -20558,7 +20657,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="45">
+    <row r="108" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
         <v>315</v>
       </c>
@@ -20575,7 +20674,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="225">
+    <row r="109" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
         <v>315</v>
       </c>
@@ -20592,7 +20691,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="90">
+    <row r="110" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A110" s="29" t="s">
         <v>315</v>
       </c>
@@ -20609,7 +20708,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="135">
+    <row r="111" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>315</v>
       </c>
@@ -20626,7 +20725,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="75">
+    <row r="112" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
         <v>315</v>
       </c>
@@ -20643,7 +20742,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="45">
+    <row r="113" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
         <v>315</v>
       </c>
@@ -20660,7 +20759,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="60">
+    <row r="114" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
         <v>315</v>
       </c>
@@ -20677,7 +20776,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="60">
+    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A115" s="29" t="s">
         <v>227</v>
       </c>
@@ -20694,7 +20793,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="75">
+    <row r="116" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
         <v>487</v>
       </c>
@@ -20711,7 +20810,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="120">
+    <row r="117" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A117" s="29" t="s">
         <v>487</v>
       </c>
@@ -20728,7 +20827,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="210">
+    <row r="118" spans="1:5" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
         <v>402</v>
       </c>
@@ -20745,7 +20844,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="45">
+    <row r="119" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
         <v>402</v>
       </c>
@@ -20762,7 +20861,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="30">
+    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
         <v>497</v>
       </c>
@@ -20779,7 +20878,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="29" t="s">
         <v>487</v>
       </c>
@@ -20796,7 +20895,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="120">
+    <row r="122" spans="1:5" ht="102" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
         <v>497</v>
       </c>
@@ -20813,7 +20912,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="90">
+    <row r="123" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A123" s="29" t="s">
         <v>487</v>
       </c>
@@ -20830,7 +20929,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="105">
+    <row r="124" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>487</v>
       </c>
@@ -20847,7 +20946,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="210">
+    <row r="125" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A125" s="29" t="s">
         <v>487</v>
       </c>
@@ -20864,7 +20963,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30">
+    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
         <v>487</v>
       </c>
@@ -20881,7 +20980,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="60">
+    <row r="127" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A127" s="29" t="s">
         <v>487</v>
       </c>
@@ -20898,7 +20997,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45">
+    <row r="128" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>487</v>
       </c>
@@ -20915,7 +21014,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="210">
+    <row r="129" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>487</v>
       </c>
@@ -20932,7 +21031,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="90">
+    <row r="130" spans="1:5" ht="102" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
         <v>487</v>
       </c>
@@ -20949,7 +21048,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="45">
+    <row r="131" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A131" s="29" t="s">
         <v>487</v>
       </c>
@@ -20966,7 +21065,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="75">
+    <row r="132" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
         <v>487</v>
       </c>
@@ -20983,7 +21082,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="210">
+    <row r="133" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A133" s="29" t="s">
         <v>487</v>
       </c>
@@ -21000,7 +21099,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="75">
+    <row r="134" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
         <v>487</v>
       </c>
@@ -21017,7 +21116,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="195">
+    <row r="135" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
         <v>487</v>
       </c>
@@ -21034,7 +21133,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="30">
+    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
         <v>487</v>
       </c>
@@ -21051,7 +21150,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="75">
+    <row r="137" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A137" s="29" t="s">
         <v>487</v>
       </c>
@@ -21068,7 +21167,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="90">
+    <row r="138" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A138" s="29" t="s">
         <v>487</v>
       </c>
@@ -21085,7 +21184,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="255">
+    <row r="139" spans="1:5" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A139" s="29" t="s">
         <v>487</v>
       </c>
@@ -21102,7 +21201,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="29" t="s">
         <v>487</v>
       </c>
@@ -21119,7 +21218,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="29" t="s">
         <v>487</v>
       </c>
@@ -21136,7 +21235,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="30">
+    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="29" t="s">
         <v>487</v>
       </c>
@@ -21153,7 +21252,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="30">
+    <row r="143" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A143" s="29" t="s">
         <v>487</v>
       </c>
@@ -21170,7 +21269,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="45">
+    <row r="144" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A144" s="29" t="s">
         <v>487</v>
       </c>
@@ -21187,7 +21286,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="45">
+    <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
         <v>487</v>
       </c>
@@ -21204,7 +21303,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="45">
+    <row r="146" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
         <v>487</v>
       </c>
@@ -21221,7 +21320,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="90">
+    <row r="147" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A147" s="29" t="s">
         <v>487</v>
       </c>
@@ -21238,7 +21337,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="45">
+    <row r="148" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A148" s="29" t="s">
         <v>487</v>
       </c>
@@ -21255,7 +21354,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="45">
+    <row r="149" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
         <v>487</v>
       </c>
@@ -21272,7 +21371,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="60">
+    <row r="150" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A150" s="29" t="s">
         <v>487</v>
       </c>
@@ -21289,7 +21388,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="240">
+    <row r="151" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A151" s="29" t="s">
         <v>487</v>
       </c>
@@ -21306,7 +21405,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="75">
+    <row r="152" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A152" s="29" t="s">
         <v>487</v>
       </c>
@@ -21323,7 +21422,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="210">
+    <row r="153" spans="1:5" ht="204" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
         <v>487</v>
       </c>
@@ -21340,7 +21439,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="30">
+    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="29" t="s">
         <v>487</v>
       </c>
@@ -21357,7 +21456,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="135">
+    <row r="155" spans="1:5" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A155" s="29" t="s">
         <v>487</v>
       </c>
@@ -21374,7 +21473,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="29" t="s">
         <v>487</v>
       </c>
@@ -21391,7 +21490,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="135">
+    <row r="157" spans="1:5" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A157" s="29" t="s">
         <v>487</v>
       </c>
@@ -21408,7 +21507,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="60">
+    <row r="158" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A158" s="29" t="s">
         <v>487</v>
       </c>
@@ -21425,7 +21524,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="60">
+    <row r="159" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A159" s="29" t="s">
         <v>487</v>
       </c>
@@ -21442,7 +21541,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="29" t="s">
         <v>487</v>
       </c>
@@ -21459,7 +21558,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="45">
+    <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="29" t="s">
         <v>487</v>
       </c>
@@ -21476,7 +21575,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="240">
+    <row r="162" spans="1:5" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A162" s="29" t="s">
         <v>487</v>
       </c>
@@ -21493,7 +21592,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="45">
+    <row r="163" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A163" s="29" t="s">
         <v>487</v>
       </c>
@@ -21510,7 +21609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="30">
+    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="29" t="s">
         <v>487</v>
       </c>
@@ -21527,7 +21626,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="75">
+    <row r="165" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A165" s="29" t="s">
         <v>487</v>
       </c>
@@ -21544,7 +21643,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="45">
+    <row r="166" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A166" s="29" t="s">
         <v>487</v>
       </c>
@@ -21561,7 +21660,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="90">
+    <row r="167" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A167" s="29" t="s">
         <v>487</v>
       </c>
@@ -21578,7 +21677,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="45">
+    <row r="168" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A168" s="29" t="s">
         <v>487</v>
       </c>
@@ -21595,7 +21694,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="45">
+    <row r="169" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A169" s="29" t="s">
         <v>487</v>
       </c>
@@ -21612,7 +21711,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="195">
+    <row r="170" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A170" s="31" t="s">
         <v>487</v>
       </c>
@@ -21629,7 +21728,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="60">
+    <row r="171" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>487</v>
       </c>
@@ -21646,7 +21745,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="60">
+    <row r="172" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
         <v>487</v>
       </c>
@@ -21663,7 +21762,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="45">
+    <row r="173" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A173" s="31" t="s">
         <v>487</v>
       </c>
@@ -21680,7 +21779,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="30">
+    <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="31" t="s">
         <v>487</v>
       </c>
@@ -21697,7 +21796,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="45">
+    <row r="175" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A175" s="31" t="s">
         <v>487</v>
       </c>
@@ -21714,7 +21813,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="195">
+    <row r="176" spans="1:5" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A176" s="31" t="s">
         <v>487</v>
       </c>
@@ -21731,7 +21830,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="30">
+    <row r="177" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="31" t="s">
         <v>487</v>
       </c>
@@ -21748,7 +21847,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="75">
+    <row r="178" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
         <v>487</v>
       </c>
@@ -21765,7 +21864,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="75">
+    <row r="179" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A179" s="31" t="s">
         <v>487</v>
       </c>
@@ -21782,7 +21881,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="31" t="s">
         <v>487</v>
       </c>
@@ -21799,7 +21898,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="45">
+    <row r="181" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>487</v>
       </c>
@@ -21816,7 +21915,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
         <v>487</v>
       </c>
@@ -21833,7 +21932,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="45">
+    <row r="183" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
         <v>487</v>
       </c>
@@ -21850,7 +21949,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="31" t="s">
         <v>487</v>
       </c>
@@ -21867,7 +21966,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="31" t="s">
         <v>487</v>
       </c>
@@ -21884,7 +21983,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="31" t="s">
         <v>487</v>
       </c>
@@ -21901,7 +22000,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="31" t="s">
         <v>487</v>
       </c>
@@ -21918,7 +22017,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="45">
+    <row r="188" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A188" s="31" t="s">
         <v>487</v>
       </c>
@@ -21935,7 +22034,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="30">
+    <row r="189" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="31" t="s">
         <v>625</v>
       </c>
@@ -21952,7 +22051,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="30">
+    <row r="190" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="31" t="s">
         <v>487</v>
       </c>
@@ -21969,7 +22068,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
         <v>487</v>
       </c>
@@ -21986,7 +22085,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>487</v>
       </c>
@@ -22003,7 +22102,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="31" t="s">
         <v>487</v>
       </c>
@@ -22020,7 +22119,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
         <v>487</v>
       </c>
@@ -22037,7 +22136,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="31" t="s">
         <v>487</v>
       </c>
@@ -22054,7 +22153,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>487</v>
       </c>
@@ -22071,7 +22170,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
         <v>487</v>
       </c>
@@ -22088,7 +22187,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
         <v>227</v>
       </c>
@@ -22107,184 +22206,184 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E96:E198 E2:E93">
-    <cfRule type="duplicateValues" dxfId="75" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="72" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="71" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="duplicateValues" dxfId="70" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="69" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="68" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="67" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="66" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="65" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="63" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="61" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="duplicateValues" dxfId="60" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18">
-    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="58" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E25">
-    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="duplicateValues" dxfId="55" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 E29:E30">
-    <cfRule type="duplicateValues" dxfId="54" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E34">
-    <cfRule type="duplicateValues" dxfId="53" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="52" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="49" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E39">
-    <cfRule type="duplicateValues" dxfId="48" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="47" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="46" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="45" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E45">
-    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="42" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="41" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="40" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E51">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="duplicateValues" dxfId="37" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="duplicateValues" dxfId="36" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="35" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:E62">
-    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:E74">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:E76">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23127836\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF544213-177B-5446-B5B0-49BAD2C15D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="5460" windowWidth="20505" windowHeight="7755" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -28,10 +29,11 @@
     <sheet name="TemplateManagement" sheetId="11" r:id="rId14"/>
     <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId15"/>
     <sheet name="Authentication Policy" sheetId="13" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId17"/>
-    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId18"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId19"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId20"/>
+    <sheet name="OpenAPILoginSheet" sheetId="21" r:id="rId17"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId18"/>
+    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="1068">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3326,12 +3328,33 @@
   <si>
     <t>A customer must correctly validate any 3 out of 6 security questions before providing any information or taking any action on the customer account</t>
   </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3402,6 +3425,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tondo-regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3613,7 +3643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3805,13 +3835,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="157">
     <dxf>
@@ -5712,22 +5745,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -5780,7 +5813,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17" ht="16">
       <c r="A2" s="18">
         <v>2394650</v>
       </c>
@@ -5815,7 +5848,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
+    <row r="3" spans="1:17" ht="16">
       <c r="A3" s="18">
         <v>2388192</v>
       </c>
@@ -5848,7 +5881,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
+    <row r="4" spans="1:17" ht="16">
       <c r="A4" s="18">
         <v>23103239</v>
       </c>
@@ -5881,7 +5914,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
+    <row r="5" spans="1:17" ht="16">
       <c r="A5" s="18">
         <v>2394650</v>
       </c>
@@ -5935,16 +5968,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -6009,16 +6042,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="10" t="s">
         <v>94</v>
       </c>
@@ -6062,7 +6095,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="18" t="s">
         <v>164</v>
       </c>
@@ -6073,7 +6106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38.25">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="19" t="s">
         <v>165</v>
       </c>
@@ -6084,7 +6117,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25">
+    <row r="7" spans="1:3" ht="30">
       <c r="B7" s="21" t="s">
         <v>167</v>
       </c>
@@ -6092,7 +6125,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38.25">
+    <row r="8" spans="1:3" ht="30">
       <c r="B8" s="21" t="s">
         <v>167</v>
       </c>
@@ -6100,7 +6133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38.25">
+    <row r="9" spans="1:3" ht="30">
       <c r="B9" s="21" t="s">
         <v>167</v>
       </c>
@@ -6108,7 +6141,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38.25">
+    <row r="10" spans="1:3" ht="30">
       <c r="B10" s="21" t="s">
         <v>167</v>
       </c>
@@ -6116,7 +6149,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5">
+    <row r="11" spans="1:3">
       <c r="B11" s="22" t="s">
         <v>168</v>
       </c>
@@ -6124,7 +6157,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25.5">
+    <row r="12" spans="1:3">
       <c r="B12" s="21" t="s">
         <v>168</v>
       </c>
@@ -6188,7 +6221,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="38.25">
+    <row r="20" spans="2:3" ht="45">
       <c r="B20" s="21" t="s">
         <v>170</v>
       </c>
@@ -6196,7 +6229,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="38.25">
+    <row r="21" spans="2:3" ht="45">
       <c r="B21" s="23" t="s">
         <v>170</v>
       </c>
@@ -6204,7 +6237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3">
       <c r="B22" s="23" t="s">
         <v>171</v>
       </c>
@@ -6212,7 +6245,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3">
       <c r="B23" s="23" t="s">
         <v>171</v>
       </c>
@@ -6220,7 +6253,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="25.5">
+    <row r="24" spans="2:3" ht="30">
       <c r="B24" s="23" t="s">
         <v>172</v>
       </c>
@@ -6228,7 +6261,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="25.5">
+    <row r="25" spans="2:3" ht="30">
       <c r="B25" s="23" t="s">
         <v>172</v>
       </c>
@@ -6236,7 +6269,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="38.25">
+    <row r="26" spans="2:3" ht="30">
       <c r="B26" s="23" t="s">
         <v>173</v>
       </c>
@@ -6276,7 +6309,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="25.5">
+    <row r="31" spans="2:3" ht="30">
       <c r="B31" s="23" t="s">
         <v>172</v>
       </c>
@@ -6284,7 +6317,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="25.5">
+    <row r="32" spans="2:3">
       <c r="B32" s="23" t="s">
         <v>171</v>
       </c>
@@ -6292,7 +6325,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="25.5">
+    <row r="33" spans="2:3">
       <c r="B33" s="21" t="s">
         <v>168</v>
       </c>
@@ -6314,20 +6347,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -6344,7 +6377,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="28" t="s">
         <v>207</v>
       </c>
@@ -6361,7 +6394,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="28" t="s">
         <v>210</v>
       </c>
@@ -6394,16 +6427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
@@ -6414,7 +6447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="11" t="s">
         <v>104</v>
       </c>
@@ -6423,7 +6456,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
@@ -6432,7 +6465,7 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="13" t="s">
         <v>107</v>
       </c>
@@ -6441,7 +6474,7 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="13" t="s">
         <v>108</v>
       </c>
@@ -6450,7 +6483,7 @@
       </c>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="13" t="s">
         <v>109</v>
       </c>
@@ -6467,16 +6500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="10" t="s">
         <v>110</v>
       </c>
@@ -6484,7 +6517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
@@ -6492,7 +6525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
         <v>979</v>
       </c>
@@ -6500,7 +6533,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
@@ -6508,19 +6541,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="2" t="s">
         <v>119</v>
       </c>
@@ -6532,16 +6565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -6564,19 +6597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="63">
+    <row r="1" spans="1:13" ht="51">
       <c r="A1" s="16" t="s">
         <v>125</v>
       </c>
@@ -6617,7 +6650,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="180">
+    <row r="2" spans="1:13" ht="160">
       <c r="A2" s="75" t="s">
         <v>220</v>
       </c>
@@ -6656,20 +6689,69 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2393732-2845-D443-85F5-941FB28FA602}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="88" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="88" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="88" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:10" ht="34">
       <c r="A1" s="16" t="s">
         <v>138</v>
       </c>
@@ -6699,7 +6781,7 @@
       </c>
       <c r="J1" s="48"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5">
+    <row r="2" spans="1:10" ht="34">
       <c r="A2" s="16" t="s">
         <v>145</v>
       </c>
@@ -6719,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30.75">
+    <row r="3" spans="1:10" ht="33">
       <c r="A3" s="48" t="s">
         <v>975</v>
       </c>
@@ -6739,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="32">
       <c r="A4" s="48" t="s">
         <v>1038</v>
       </c>
@@ -6755,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="48" t="s">
         <v>1039</v>
       </c>
@@ -6771,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="48" t="s">
         <v>1040</v>
       </c>
@@ -6787,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="48" t="s">
         <v>1041</v>
       </c>
@@ -6803,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="32">
       <c r="A8" s="48" t="s">
         <v>1042</v>
       </c>
@@ -6819,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="48" t="s">
         <v>1043</v>
       </c>
@@ -6835,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="48">
       <c r="A10" s="48" t="s">
         <v>1044</v>
       </c>
@@ -6851,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="48" t="s">
         <v>1045</v>
       </c>
@@ -6867,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="32">
       <c r="A12" s="48" t="s">
         <v>1046</v>
       </c>
@@ -6883,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:10" ht="32">
       <c r="A13" s="48" t="s">
         <v>1047</v>
       </c>
@@ -6905,15 +6987,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
@@ -7291,15 +7373,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" style="75" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="60" style="75" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C6" s="82"/>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C13" s="82"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C14" s="82"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="17" t="s">
@@ -7369,199 +7631,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="60" style="75" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="75"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="16" t="s">
-        <v>996</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>997</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5">
-      <c r="A3" s="16" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="16" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
-      <c r="A5" s="16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5">
-      <c r="A6" s="16" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C6" s="82"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="16" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5">
-      <c r="A9" s="16" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5">
-      <c r="A10" s="16" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5">
-      <c r="A11" s="16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="16" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C13" s="82"/>
-    </row>
-    <row r="14" spans="1:3" ht="31.5">
-      <c r="A14" s="16" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C14" s="82"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="16" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="4" collapsed="1"/>
+    <col min="1" max="1" width="26.5" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.1640625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7604,16 +7686,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -7654,14 +7736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="18" t="s">
@@ -7704,7 +7786,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
@@ -7758,7 +7840,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="45">
+    <row r="4" spans="1:13" ht="48">
       <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
@@ -8032,7 +8114,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="45">
+    <row r="14" spans="1:13" ht="48">
       <c r="A14" s="43" t="s">
         <v>940</v>
       </c>
@@ -8177,7 +8259,7 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
+    <row r="19" spans="1:13" ht="48">
       <c r="A19" s="43" t="s">
         <v>960</v>
       </c>
@@ -8319,16 +8401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
@@ -8550,19 +8632,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -8610,16 +8692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -8735,7 +8817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="51">
+    <row r="2" spans="1:38" ht="60">
       <c r="A2" s="29" t="s">
         <v>402</v>
       </c>
@@ -8812,7 +8894,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="30">
+    <row r="3" spans="1:38" ht="32">
       <c r="A3" s="29" t="s">
         <v>402</v>
       </c>
@@ -8889,7 +8971,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="30">
+    <row r="4" spans="1:38" ht="32">
       <c r="A4" s="29" t="s">
         <v>402</v>
       </c>
@@ -8966,7 +9048,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="76.5">
+    <row r="5" spans="1:38" ht="75">
       <c r="A5" s="29" t="s">
         <v>402</v>
       </c>
@@ -9043,7 +9125,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="255">
+    <row r="6" spans="1:38" ht="285">
       <c r="A6" s="30" t="s">
         <v>402</v>
       </c>
@@ -9120,7 +9202,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="38.25">
+    <row r="7" spans="1:38" ht="45">
       <c r="A7" s="29" t="s">
         <v>402</v>
       </c>
@@ -9270,7 +9352,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="178.5">
+    <row r="9" spans="1:38" ht="195">
       <c r="A9" s="30" t="s">
         <v>402</v>
       </c>
@@ -9347,7 +9429,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="51">
+    <row r="10" spans="1:38" ht="60">
       <c r="A10" s="29" t="s">
         <v>402</v>
       </c>
@@ -9422,7 +9504,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="51">
+    <row r="11" spans="1:38" ht="60">
       <c r="A11" s="29" t="s">
         <v>402</v>
       </c>
@@ -9497,7 +9579,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="178.5">
+    <row r="12" spans="1:38" ht="180">
       <c r="A12" s="29" t="s">
         <v>402</v>
       </c>
@@ -9572,7 +9654,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="102">
+    <row r="13" spans="1:38" ht="105">
       <c r="A13" s="29" t="s">
         <v>402</v>
       </c>
@@ -9647,7 +9729,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="38.25">
+    <row r="14" spans="1:38" ht="45">
       <c r="A14" s="29" t="s">
         <v>402</v>
       </c>
@@ -9722,7 +9804,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="178.5">
+    <row r="15" spans="1:38" ht="180">
       <c r="A15" s="29" t="s">
         <v>402</v>
       </c>
@@ -9797,7 +9879,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="204">
+    <row r="16" spans="1:38" ht="225">
       <c r="A16" s="29" t="s">
         <v>402</v>
       </c>
@@ -9872,7 +9954,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="38.25">
+    <row r="17" spans="1:37" ht="45">
       <c r="A17" s="29" t="s">
         <v>402</v>
       </c>
@@ -9947,7 +10029,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="127.5">
+    <row r="18" spans="1:37" ht="135">
       <c r="A18" s="29" t="s">
         <v>402</v>
       </c>
@@ -10022,7 +10104,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="76.5">
+    <row r="19" spans="1:37" ht="75">
       <c r="A19" s="29" t="s">
         <v>402</v>
       </c>
@@ -10097,7 +10179,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="38.25">
+    <row r="20" spans="1:37" ht="45">
       <c r="A20" s="29" t="s">
         <v>402</v>
       </c>
@@ -10172,7 +10254,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="51">
+    <row r="21" spans="1:37" ht="60">
       <c r="A21" s="29" t="s">
         <v>402</v>
       </c>
@@ -10247,7 +10329,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="38.25">
+    <row r="22" spans="1:37" ht="45">
       <c r="A22" s="29" t="s">
         <v>402</v>
       </c>
@@ -10322,7 +10404,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="76.5">
+    <row r="23" spans="1:37" ht="75">
       <c r="A23" s="29" t="s">
         <v>402</v>
       </c>
@@ -10397,7 +10479,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="140.25">
+    <row r="24" spans="1:37" ht="150">
       <c r="A24" s="34" t="s">
         <v>402</v>
       </c>
@@ -10472,7 +10554,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="127.5">
+    <row r="25" spans="1:37" ht="135">
       <c r="A25" s="29" t="s">
         <v>402</v>
       </c>
@@ -10547,7 +10629,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="102">
+    <row r="26" spans="1:37" ht="105">
       <c r="A26" s="29" t="s">
         <v>402</v>
       </c>
@@ -10622,7 +10704,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="165.75">
+    <row r="27" spans="1:37" ht="150">
       <c r="A27" s="29" t="s">
         <v>402</v>
       </c>
@@ -10697,7 +10779,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="114.75">
+    <row r="28" spans="1:37" ht="105">
       <c r="A28" s="29" t="s">
         <v>402</v>
       </c>
@@ -10772,7 +10854,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="89.25">
+    <row r="29" spans="1:37" ht="90">
       <c r="A29" s="29" t="s">
         <v>402</v>
       </c>
@@ -10847,7 +10929,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="114.75">
+    <row r="30" spans="1:37" ht="105">
       <c r="A30" s="29" t="s">
         <v>402</v>
       </c>
@@ -10922,7 +11004,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="204">
+    <row r="31" spans="1:37" ht="210">
       <c r="A31" s="29" t="s">
         <v>402</v>
       </c>
@@ -10997,7 +11079,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="26.25">
+    <row r="32" spans="1:37" ht="30">
       <c r="A32" s="34" t="s">
         <v>402</v>
       </c>
@@ -11072,7 +11154,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="51">
+    <row r="33" spans="1:37" ht="45">
       <c r="A33" s="29" t="s">
         <v>402</v>
       </c>
@@ -11147,7 +11229,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="204">
+    <row r="34" spans="1:37" ht="210">
       <c r="A34" s="29" t="s">
         <v>402</v>
       </c>
@@ -11222,7 +11304,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="38.25">
+    <row r="35" spans="1:37" ht="45">
       <c r="A35" s="29" t="s">
         <v>402</v>
       </c>
@@ -11297,7 +11379,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="89.25">
+    <row r="36" spans="1:37" ht="90">
       <c r="A36" s="34" t="s">
         <v>402</v>
       </c>
@@ -11372,7 +11454,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="204">
+    <row r="37" spans="1:37" ht="210">
       <c r="A37" s="29" t="s">
         <v>402</v>
       </c>
@@ -11447,7 +11529,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="165.75">
+    <row r="38" spans="1:37" ht="195">
       <c r="A38" s="29" t="s">
         <v>402</v>
       </c>
@@ -11522,7 +11604,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="26.25">
+    <row r="39" spans="1:37" ht="30">
       <c r="A39" s="34" t="s">
         <v>402</v>
       </c>
@@ -11597,7 +11679,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="242.25">
+    <row r="40" spans="1:37" ht="255">
       <c r="A40" s="29" t="s">
         <v>402</v>
       </c>
@@ -11627,7 +11709,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="25.5">
+    <row r="41" spans="1:37" ht="30">
       <c r="A41" s="29" t="s">
         <v>402</v>
       </c>
@@ -11702,7 +11784,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="38.25">
+    <row r="42" spans="1:37" ht="30">
       <c r="A42" s="29" t="s">
         <v>402</v>
       </c>
@@ -11777,7 +11859,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="38.25">
+    <row r="43" spans="1:37" ht="45">
       <c r="A43" s="29" t="s">
         <v>402</v>
       </c>
@@ -11852,7 +11934,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="38.25">
+    <row r="44" spans="1:37" ht="45">
       <c r="A44" s="29" t="s">
         <v>402</v>
       </c>
@@ -11927,7 +12009,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="38.25">
+    <row r="45" spans="1:37" ht="45">
       <c r="A45" s="29" t="s">
         <v>402</v>
       </c>
@@ -12002,7 +12084,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="38.25">
+    <row r="46" spans="1:37" ht="45">
       <c r="A46" s="29" t="s">
         <v>402</v>
       </c>
@@ -12077,7 +12159,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="38.25">
+    <row r="47" spans="1:37" ht="45">
       <c r="A47" s="29" t="s">
         <v>402</v>
       </c>
@@ -12152,7 +12234,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="204">
+    <row r="48" spans="1:37" ht="240">
       <c r="A48" s="29" t="s">
         <v>402</v>
       </c>
@@ -12227,7 +12309,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="204">
+    <row r="49" spans="1:37" ht="210">
       <c r="A49" s="29" t="s">
         <v>402</v>
       </c>
@@ -12302,7 +12384,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="25.5">
+    <row r="50" spans="1:37" ht="30">
       <c r="A50" s="29" t="s">
         <v>402</v>
       </c>
@@ -12452,7 +12534,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="165.75">
+    <row r="52" spans="1:37" ht="135">
       <c r="A52" s="29" t="s">
         <v>402</v>
       </c>
@@ -12527,7 +12609,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="102">
+    <row r="53" spans="1:37" ht="90">
       <c r="A53" s="29" t="s">
         <v>402</v>
       </c>
@@ -12602,7 +12684,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="63.75">
+    <row r="54" spans="1:37" ht="60">
       <c r="A54" s="29" t="s">
         <v>402</v>
       </c>
@@ -12677,7 +12759,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="51">
+    <row r="55" spans="1:37" ht="60">
       <c r="A55" s="29" t="s">
         <v>402</v>
       </c>
@@ -12752,7 +12834,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="38.25">
+    <row r="56" spans="1:37" ht="45">
       <c r="A56" s="29" t="s">
         <v>402</v>
       </c>
@@ -12827,7 +12909,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="216.75">
+    <row r="57" spans="1:37" ht="240">
       <c r="A57" s="29" t="s">
         <v>402</v>
       </c>
@@ -12902,7 +12984,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="140.25">
+    <row r="58" spans="1:37" ht="150">
       <c r="A58" s="29" t="s">
         <v>315</v>
       </c>
@@ -12977,7 +13059,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="38.25">
+    <row r="59" spans="1:37" ht="45">
       <c r="A59" s="29" t="s">
         <v>315</v>
       </c>
@@ -13052,7 +13134,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="153">
+    <row r="60" spans="1:37" ht="165">
       <c r="A60" s="29" t="s">
         <v>402</v>
       </c>
@@ -13127,7 +13209,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="38.25">
+    <row r="61" spans="1:37" ht="45">
       <c r="A61" s="29" t="s">
         <v>402</v>
       </c>
@@ -13202,7 +13284,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="38.25">
+    <row r="62" spans="1:37" ht="45">
       <c r="A62" s="29" t="s">
         <v>402</v>
       </c>
@@ -13277,7 +13359,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="178.5">
+    <row r="63" spans="1:37" ht="195">
       <c r="A63" s="29" t="s">
         <v>402</v>
       </c>
@@ -13352,7 +13434,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="89.25">
+    <row r="64" spans="1:37" ht="90">
       <c r="A64" s="34" t="s">
         <v>402</v>
       </c>
@@ -13427,7 +13509,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="51">
+    <row r="65" spans="1:37" ht="45">
       <c r="A65" s="29" t="s">
         <v>402</v>
       </c>
@@ -13502,7 +13584,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="26.25">
+    <row r="66" spans="1:37" ht="30">
       <c r="A66" s="29" t="s">
         <v>402</v>
       </c>
@@ -13577,7 +13659,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="63.75">
+    <row r="67" spans="1:37" ht="60">
       <c r="A67" s="29" t="s">
         <v>402</v>
       </c>
@@ -13652,7 +13734,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="51">
+    <row r="68" spans="1:37" ht="45">
       <c r="A68" s="29" t="s">
         <v>402</v>
       </c>
@@ -13727,7 +13809,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="63.75">
+    <row r="69" spans="1:37" ht="60">
       <c r="A69" s="29" t="s">
         <v>402</v>
       </c>
@@ -13802,7 +13884,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="25.5">
+    <row r="70" spans="1:37" ht="30">
       <c r="A70" s="29" t="s">
         <v>402</v>
       </c>
@@ -13877,7 +13959,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="51">
+    <row r="71" spans="1:37" ht="45">
       <c r="A71" s="29" t="s">
         <v>402</v>
       </c>
@@ -13952,7 +14034,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="38.25">
+    <row r="72" spans="1:37" ht="45">
       <c r="A72" s="29" t="s">
         <v>402</v>
       </c>
@@ -14027,7 +14109,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="191.25">
+    <row r="73" spans="1:37" ht="195">
       <c r="A73" s="29" t="s">
         <v>402</v>
       </c>
@@ -14102,7 +14184,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="89.25">
+    <row r="74" spans="1:37" ht="90">
       <c r="A74" s="29" t="s">
         <v>402</v>
       </c>
@@ -14177,7 +14259,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="51">
+    <row r="75" spans="1:37" ht="45">
       <c r="A75" s="29" t="s">
         <v>402</v>
       </c>
@@ -14252,7 +14334,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="25.5">
+    <row r="76" spans="1:37" ht="30">
       <c r="A76" s="29" t="s">
         <v>402</v>
       </c>
@@ -14402,7 +14484,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="51">
+    <row r="78" spans="1:37" ht="45">
       <c r="A78" s="29" t="s">
         <v>402</v>
       </c>
@@ -14477,7 +14559,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="51">
+    <row r="79" spans="1:37" ht="60">
       <c r="A79" s="29" t="s">
         <v>402</v>
       </c>
@@ -14552,7 +14634,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="63.75">
+    <row r="80" spans="1:37" ht="60">
       <c r="A80" s="29" t="s">
         <v>402</v>
       </c>
@@ -14627,7 +14709,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="51">
+    <row r="81" spans="1:37" ht="45">
       <c r="A81" s="29" t="s">
         <v>402</v>
       </c>
@@ -14702,7 +14784,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="38.25">
+    <row r="82" spans="1:37" ht="45">
       <c r="A82" s="29" t="s">
         <v>402</v>
       </c>
@@ -14777,7 +14859,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="26.25">
+    <row r="83" spans="1:37" ht="30">
       <c r="A83" s="29" t="s">
         <v>402</v>
       </c>
@@ -14852,7 +14934,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="38.25">
+    <row r="84" spans="1:37" ht="30">
       <c r="A84" s="29" t="s">
         <v>402</v>
       </c>
@@ -14927,7 +15009,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="38.25">
+    <row r="85" spans="1:37" ht="45">
       <c r="A85" s="29" t="s">
         <v>402</v>
       </c>
@@ -15002,7 +15084,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="26.25">
+    <row r="86" spans="1:37" ht="30">
       <c r="A86" s="29" t="s">
         <v>402</v>
       </c>
@@ -15077,7 +15159,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="51">
+    <row r="87" spans="1:37" ht="45">
       <c r="A87" s="29" t="s">
         <v>402</v>
       </c>
@@ -15152,7 +15234,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="26.25">
+    <row r="88" spans="1:37" ht="30">
       <c r="A88" s="29" t="s">
         <v>402</v>
       </c>
@@ -15227,7 +15309,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="39">
+    <row r="89" spans="1:37" ht="45">
       <c r="A89" s="29" t="s">
         <v>402</v>
       </c>
@@ -15377,7 +15459,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="26.25">
+    <row r="91" spans="1:37" ht="30">
       <c r="A91" s="29" t="s">
         <v>402</v>
       </c>
@@ -15452,7 +15534,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="26.25">
+    <row r="92" spans="1:37" ht="30">
       <c r="A92" s="29" t="s">
         <v>402</v>
       </c>
@@ -15527,7 +15609,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="51">
+    <row r="93" spans="1:37" ht="60">
       <c r="A93" s="29" t="s">
         <v>402</v>
       </c>
@@ -15602,7 +15684,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="38.25">
+    <row r="94" spans="1:37" ht="45">
       <c r="A94" s="29" t="s">
         <v>402</v>
       </c>
@@ -15677,7 +15759,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="51">
+    <row r="95" spans="1:37" ht="45">
       <c r="A95" s="29" t="s">
         <v>402</v>
       </c>
@@ -15752,7 +15834,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="26.25">
+    <row r="96" spans="1:37" ht="30">
       <c r="A96" s="29" t="s">
         <v>402</v>
       </c>
@@ -15827,7 +15909,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="26.25">
+    <row r="97" spans="1:37" ht="30">
       <c r="A97" s="29" t="s">
         <v>402</v>
       </c>
@@ -15902,7 +15984,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="26.25">
+    <row r="98" spans="1:37" ht="30">
       <c r="A98" s="29" t="s">
         <v>402</v>
       </c>
@@ -15977,7 +16059,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="26.25">
+    <row r="99" spans="1:37" ht="30">
       <c r="A99" s="29" t="s">
         <v>402</v>
       </c>
@@ -16052,7 +16134,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="26.25">
+    <row r="100" spans="1:37" ht="30">
       <c r="A100" s="29" t="s">
         <v>402</v>
       </c>
@@ -16202,7 +16284,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="38.25">
+    <row r="102" spans="1:37" ht="45">
       <c r="A102" s="29" t="s">
         <v>402</v>
       </c>
@@ -16277,7 +16359,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="51">
+    <row r="103" spans="1:37" ht="60">
       <c r="A103" s="29" t="s">
         <v>402</v>
       </c>
@@ -16352,7 +16434,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="63.75">
+    <row r="104" spans="1:37" ht="75">
       <c r="A104" s="29" t="s">
         <v>402</v>
       </c>
@@ -16427,7 +16509,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="63.75">
+    <row r="105" spans="1:37" ht="60">
       <c r="A105" s="29" t="s">
         <v>402</v>
       </c>
@@ -16502,7 +16584,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="26.25">
+    <row r="106" spans="1:37" ht="30">
       <c r="A106" s="29" t="s">
         <v>402</v>
       </c>
@@ -16577,7 +16659,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="38.25">
+    <row r="107" spans="1:37" ht="45">
       <c r="A107" s="29" t="s">
         <v>402</v>
       </c>
@@ -16652,7 +16734,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="26.25">
+    <row r="108" spans="1:37" ht="30">
       <c r="A108" s="29" t="s">
         <v>402</v>
       </c>
@@ -16727,7 +16809,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="60">
+    <row r="109" spans="1:37" ht="48">
       <c r="A109" s="29" t="s">
         <v>402</v>
       </c>
@@ -16804,7 +16886,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="90">
+    <row r="110" spans="1:37" ht="64">
       <c r="A110" s="29" t="s">
         <v>402</v>
       </c>
@@ -16881,7 +16963,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="75">
+    <row r="111" spans="1:37" ht="48">
       <c r="A111" s="29" t="s">
         <v>402</v>
       </c>
@@ -16958,7 +17040,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="76.5">
+    <row r="112" spans="1:37" ht="75">
       <c r="A112" s="29" t="s">
         <v>402</v>
       </c>
@@ -17035,7 +17117,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="51">
+    <row r="113" spans="1:37" ht="45">
       <c r="A113" s="29" t="s">
         <v>402</v>
       </c>
@@ -17112,7 +17194,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="45">
+    <row r="114" spans="1:37" ht="32">
       <c r="A114" s="29" t="s">
         <v>402</v>
       </c>
@@ -17189,7 +17271,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="26.25">
+    <row r="115" spans="1:37" ht="30">
       <c r="A115" s="29" t="s">
         <v>402</v>
       </c>
@@ -17266,7 +17348,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="30">
+    <row r="116" spans="1:37" ht="32">
       <c r="A116" s="29" t="s">
         <v>402</v>
       </c>
@@ -17343,7 +17425,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="51">
+    <row r="117" spans="1:37" ht="60">
       <c r="A117" s="29" t="s">
         <v>402</v>
       </c>
@@ -17420,7 +17502,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="51">
+    <row r="118" spans="1:37" ht="60">
       <c r="A118" s="29" t="s">
         <v>315</v>
       </c>
@@ -17476,7 +17558,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="63.75">
+    <row r="119" spans="1:37" ht="60">
       <c r="A119" s="29" t="s">
         <v>402</v>
       </c>
@@ -17532,7 +17614,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="255">
+    <row r="120" spans="1:37" ht="285">
       <c r="A120" s="29" t="s">
         <v>315</v>
       </c>
@@ -17588,7 +17670,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="216.75">
+    <row r="121" spans="1:37" ht="210">
       <c r="A121" s="29" t="s">
         <v>836</v>
       </c>
@@ -17626,7 +17708,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="127.5">
+    <row r="122" spans="1:37" ht="135">
       <c r="A122" s="29" t="s">
         <v>402</v>
       </c>
@@ -17682,7 +17764,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="38.25">
+    <row r="123" spans="1:37" ht="45">
       <c r="A123" s="29" t="s">
         <v>402</v>
       </c>
@@ -17738,7 +17820,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="76.5">
+    <row r="124" spans="1:37" ht="75">
       <c r="A124" s="29" t="s">
         <v>402</v>
       </c>
@@ -17803,7 +17885,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="38.25">
+    <row r="125" spans="1:37" ht="45">
       <c r="A125" s="29" t="s">
         <v>402</v>
       </c>
@@ -17924,7 +18006,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="25.5">
+    <row r="127" spans="1:37" ht="30">
       <c r="A127" s="30" t="s">
         <v>846</v>
       </c>
@@ -18036,7 +18118,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="25.5">
+    <row r="129" spans="1:36" ht="30">
       <c r="A129" s="29" t="s">
         <v>402</v>
       </c>
@@ -18301,19 +18383,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BG129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="73" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="73" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15.75">
+    <row r="1" spans="1:59" ht="16">
       <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
@@ -18945,16 +19027,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -18974,7 +19056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="29" t="s">
         <v>227</v>
       </c>
@@ -18994,7 +19076,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="63.75">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="29" t="s">
         <v>227</v>
       </c>
@@ -19011,7 +19093,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="29" t="s">
         <v>227</v>
       </c>
@@ -19024,7 +19106,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="29" t="s">
         <v>227</v>
       </c>
@@ -19037,7 +19119,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="114.75">
+    <row r="6" spans="1:6" ht="120">
       <c r="A6" s="30" t="s">
         <v>227</v>
       </c>
@@ -19067,7 +19149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="29" t="s">
         <v>227</v>
       </c>
@@ -19082,7 +19164,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75">
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="29" t="s">
         <v>227</v>
       </c>
@@ -19097,7 +19179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="63.75">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="34" t="s">
         <v>227</v>
       </c>
@@ -19112,7 +19194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102">
+    <row r="11" spans="1:6" ht="90">
       <c r="A11" s="29" t="s">
         <v>227</v>
       </c>
@@ -19142,7 +19224,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="76.5">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="29" t="s">
         <v>227</v>
       </c>
@@ -19157,7 +19239,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="29" t="s">
         <v>227</v>
       </c>
@@ -19172,7 +19254,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="29" t="s">
         <v>227</v>
       </c>
@@ -19187,7 +19269,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51">
+    <row r="16" spans="1:6" ht="60">
       <c r="A16" s="29" t="s">
         <v>227</v>
       </c>
@@ -19202,7 +19284,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="51">
+    <row r="17" spans="1:5" ht="60">
       <c r="A17" s="29" t="s">
         <v>227</v>
       </c>
@@ -19217,7 +19299,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="29" t="s">
         <v>227</v>
       </c>
@@ -19232,7 +19314,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="51">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="29" t="s">
         <v>227</v>
       </c>
@@ -19247,7 +19329,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51">
+    <row r="20" spans="1:5" ht="60">
       <c r="A20" s="29" t="s">
         <v>227</v>
       </c>
@@ -19277,7 +19359,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51">
+    <row r="22" spans="1:5" ht="60">
       <c r="A22" s="29" t="s">
         <v>227</v>
       </c>
@@ -19307,7 +19389,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.5">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="29" t="s">
         <v>227</v>
       </c>
@@ -19322,7 +19404,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51">
+    <row r="25" spans="1:5" ht="60">
       <c r="A25" s="29" t="s">
         <v>227</v>
       </c>
@@ -19337,7 +19419,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51">
+    <row r="26" spans="1:5" ht="60">
       <c r="A26" s="29" t="s">
         <v>227</v>
       </c>
@@ -19352,7 +19434,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="51">
+    <row r="27" spans="1:5" ht="60">
       <c r="A27" s="29" t="s">
         <v>227</v>
       </c>
@@ -19367,7 +19449,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="29" t="s">
         <v>227</v>
       </c>
@@ -19382,7 +19464,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="76.5">
+    <row r="29" spans="1:5" ht="75">
       <c r="A29" s="29" t="s">
         <v>227</v>
       </c>
@@ -19397,7 +19479,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="89.25">
+    <row r="30" spans="1:5" ht="90">
       <c r="A30" s="29" t="s">
         <v>227</v>
       </c>
@@ -19412,7 +19494,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="63.75">
+    <row r="31" spans="1:5" ht="75">
       <c r="A31" s="29" t="s">
         <v>227</v>
       </c>
@@ -19427,7 +19509,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="38.25">
+    <row r="32" spans="1:5" ht="45">
       <c r="A32" s="29" t="s">
         <v>227</v>
       </c>
@@ -19472,7 +19554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="63.75">
+    <row r="35" spans="1:5" ht="75">
       <c r="A35" s="29" t="s">
         <v>227</v>
       </c>
@@ -19487,7 +19569,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63.75">
+    <row r="36" spans="1:5" ht="75">
       <c r="A36" s="29" t="s">
         <v>227</v>
       </c>
@@ -19502,7 +19584,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="89.25">
+    <row r="37" spans="1:5" ht="90">
       <c r="A37" s="29" t="s">
         <v>227</v>
       </c>
@@ -19517,7 +19599,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="63.75">
+    <row r="38" spans="1:5" ht="60">
       <c r="A38" s="29" t="s">
         <v>227</v>
       </c>
@@ -19532,7 +19614,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="38.25">
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="29" t="s">
         <v>227</v>
       </c>
@@ -19547,7 +19629,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="76.5">
+    <row r="40" spans="1:5" ht="75">
       <c r="A40" s="29" t="s">
         <v>227</v>
       </c>
@@ -19562,7 +19644,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="127.5">
+    <row r="41" spans="1:5" ht="135">
       <c r="A41" s="29" t="s">
         <v>227</v>
       </c>
@@ -19592,7 +19674,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="38.25">
+    <row r="43" spans="1:5" ht="45">
       <c r="A43" s="29" t="s">
         <v>315</v>
       </c>
@@ -19607,7 +19689,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25.5">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="29" t="s">
         <v>315</v>
       </c>
@@ -19622,7 +19704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="76.5">
+    <row r="45" spans="1:5" ht="75">
       <c r="A45" s="29" t="s">
         <v>315</v>
       </c>
@@ -19637,7 +19719,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="89.25">
+    <row r="46" spans="1:5" ht="90">
       <c r="A46" s="29" t="s">
         <v>227</v>
       </c>
@@ -19667,7 +19749,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="89.25">
+    <row r="48" spans="1:5" ht="60">
       <c r="A48" s="29" t="s">
         <v>227</v>
       </c>
@@ -19682,7 +19764,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="38.25">
+    <row r="49" spans="1:5" ht="45">
       <c r="A49" s="29" t="s">
         <v>227</v>
       </c>
@@ -19697,7 +19779,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="38.25">
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="29" t="s">
         <v>227</v>
       </c>
@@ -19727,7 +19809,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5">
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="29" t="s">
         <v>227</v>
       </c>
@@ -19742,7 +19824,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5">
+    <row r="53" spans="1:5" ht="30">
       <c r="A53" s="29" t="s">
         <v>227</v>
       </c>
@@ -19757,7 +19839,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="38.25">
+    <row r="54" spans="1:5" ht="45">
       <c r="A54" s="29" t="s">
         <v>227</v>
       </c>
@@ -19772,7 +19854,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="38.25">
+    <row r="55" spans="1:5" ht="30">
       <c r="A55" s="29" t="s">
         <v>227</v>
       </c>
@@ -19802,7 +19884,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="25.5">
+    <row r="57" spans="1:5" ht="30">
       <c r="A57" s="29" t="s">
         <v>227</v>
       </c>
@@ -19832,7 +19914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="38.25">
+    <row r="59" spans="1:5" ht="45">
       <c r="A59" s="29" t="s">
         <v>227</v>
       </c>
@@ -19847,7 +19929,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.5">
+    <row r="60" spans="1:5" ht="30">
       <c r="A60" s="29" t="s">
         <v>227</v>
       </c>
@@ -19862,7 +19944,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="63.75">
+    <row r="61" spans="1:5" ht="60">
       <c r="A61" s="29" t="s">
         <v>227</v>
       </c>
@@ -19877,7 +19959,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="51">
+    <row r="62" spans="1:5" ht="60">
       <c r="A62" s="29" t="s">
         <v>227</v>
       </c>
@@ -19892,7 +19974,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="38.25">
+    <row r="63" spans="1:5" ht="45">
       <c r="A63" s="29" t="s">
         <v>227</v>
       </c>
@@ -19922,7 +20004,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="25.5">
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="29" t="s">
         <v>227</v>
       </c>
@@ -19937,7 +20019,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="51">
+    <row r="66" spans="1:5" ht="60">
       <c r="A66" s="29" t="s">
         <v>227</v>
       </c>
@@ -19952,7 +20034,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="63.75">
+    <row r="67" spans="1:5" ht="75">
       <c r="A67" s="29" t="s">
         <v>227</v>
       </c>
@@ -19982,7 +20064,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="38.25">
+    <row r="69" spans="1:5" ht="30">
       <c r="A69" s="29" t="s">
         <v>227</v>
       </c>
@@ -20014,7 +20096,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="38.25">
+    <row r="71" spans="1:5" ht="30">
       <c r="A71" s="29" t="s">
         <v>227</v>
       </c>
@@ -20029,7 +20111,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="38.25">
+    <row r="72" spans="1:5" ht="45">
       <c r="A72" s="29" t="s">
         <v>227</v>
       </c>
@@ -20046,7 +20128,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="25.5">
+    <row r="73" spans="1:5" ht="30">
       <c r="A73" s="29" t="s">
         <v>227</v>
       </c>
@@ -20063,7 +20145,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="45">
+    <row r="74" spans="1:5" ht="32">
       <c r="A74" s="29" t="s">
         <v>227</v>
       </c>
@@ -20080,7 +20162,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="25.5">
+    <row r="75" spans="1:5" ht="30">
       <c r="A75" s="29" t="s">
         <v>402</v>
       </c>
@@ -20114,7 +20196,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="76.5">
+    <row r="77" spans="1:5" ht="75">
       <c r="A77" s="29" t="s">
         <v>227</v>
       </c>
@@ -20131,7 +20213,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="25.5">
+    <row r="78" spans="1:5">
       <c r="A78" s="29" t="s">
         <v>227</v>
       </c>
@@ -20148,7 +20230,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="16">
       <c r="A79" s="29" t="s">
         <v>227</v>
       </c>
@@ -20165,7 +20247,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30">
+    <row r="80" spans="1:5" ht="32">
       <c r="A80" s="29" t="s">
         <v>227</v>
       </c>
@@ -20199,7 +20281,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30">
+    <row r="82" spans="1:5" ht="32">
       <c r="A82" s="29" t="s">
         <v>227</v>
       </c>
@@ -20216,7 +20298,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="45">
+    <row r="83" spans="1:5" ht="48">
       <c r="A83" s="34" t="s">
         <v>227</v>
       </c>
@@ -20233,7 +20315,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30">
+    <row r="84" spans="1:5" ht="32">
       <c r="A84" s="29" t="s">
         <v>227</v>
       </c>
@@ -20250,7 +20332,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30">
+    <row r="85" spans="1:5" ht="32">
       <c r="A85" s="29" t="s">
         <v>227</v>
       </c>
@@ -20267,7 +20349,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5">
+    <row r="86" spans="1:5" ht="30">
       <c r="A86" s="29" t="s">
         <v>227</v>
       </c>
@@ -20284,7 +20366,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="51">
+    <row r="87" spans="1:5" ht="45">
       <c r="A87" s="29" t="s">
         <v>227</v>
       </c>
@@ -20301,7 +20383,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="38.25">
+    <row r="88" spans="1:5" ht="30">
       <c r="A88" s="29" t="s">
         <v>227</v>
       </c>
@@ -20318,7 +20400,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="38.25">
+    <row r="89" spans="1:5" ht="45">
       <c r="A89" s="29" t="s">
         <v>227</v>
       </c>
@@ -20335,7 +20417,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="38.25">
+    <row r="90" spans="1:5" ht="30">
       <c r="A90" s="29" t="s">
         <v>227</v>
       </c>
@@ -20352,7 +20434,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="38.25">
+    <row r="91" spans="1:5" ht="30">
       <c r="A91" s="29" t="s">
         <v>227</v>
       </c>
@@ -20369,7 +20451,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="38.25">
+    <row r="92" spans="1:5" ht="45">
       <c r="A92" s="29" t="s">
         <v>227</v>
       </c>
@@ -20386,7 +20468,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="38.25">
+    <row r="93" spans="1:5" ht="30">
       <c r="A93" s="29" t="s">
         <v>227</v>
       </c>
@@ -20420,7 +20502,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.5">
+    <row r="95" spans="1:5">
       <c r="A95" s="29" t="s">
         <v>227</v>
       </c>
@@ -20437,7 +20519,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="51">
+    <row r="96" spans="1:5" ht="45">
       <c r="A96" s="29" t="s">
         <v>446</v>
       </c>
@@ -20454,7 +20536,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="25.5">
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="29" t="s">
         <v>315</v>
       </c>
@@ -20471,7 +20553,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="51">
+    <row r="98" spans="1:5" ht="60">
       <c r="A98" s="29" t="s">
         <v>315</v>
       </c>
@@ -20488,7 +20570,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="51">
+    <row r="99" spans="1:5" ht="60">
       <c r="A99" s="29" t="s">
         <v>315</v>
       </c>
@@ -20505,7 +20587,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="51">
+    <row r="100" spans="1:5" ht="60">
       <c r="A100" s="29" t="s">
         <v>315</v>
       </c>
@@ -20522,7 +20604,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="178.5">
+    <row r="101" spans="1:5" ht="180">
       <c r="A101" s="29" t="s">
         <v>315</v>
       </c>
@@ -20539,7 +20621,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="38.25">
+    <row r="102" spans="1:5" ht="45">
       <c r="A102" s="29" t="s">
         <v>315</v>
       </c>
@@ -20590,7 +20672,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="76.5">
+    <row r="105" spans="1:5" ht="90">
       <c r="A105" s="29" t="s">
         <v>460</v>
       </c>
@@ -20607,7 +20689,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="38.25">
+    <row r="106" spans="1:5" ht="45">
       <c r="A106" s="29" t="s">
         <v>315</v>
       </c>
@@ -20624,7 +20706,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="178.5">
+    <row r="107" spans="1:5" ht="180">
       <c r="A107" s="29" t="s">
         <v>315</v>
       </c>
@@ -20641,7 +20723,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="51">
+    <row r="108" spans="1:5" ht="45">
       <c r="A108" s="29" t="s">
         <v>315</v>
       </c>
@@ -20658,7 +20740,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="204">
+    <row r="109" spans="1:5" ht="225">
       <c r="A109" s="29" t="s">
         <v>315</v>
       </c>
@@ -20675,7 +20757,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="89.25">
+    <row r="110" spans="1:5" ht="90">
       <c r="A110" s="29" t="s">
         <v>315</v>
       </c>
@@ -20692,7 +20774,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="127.5">
+    <row r="111" spans="1:5" ht="135">
       <c r="A111" s="29" t="s">
         <v>315</v>
       </c>
@@ -20709,7 +20791,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="76.5">
+    <row r="112" spans="1:5" ht="75">
       <c r="A112" s="29" t="s">
         <v>315</v>
       </c>
@@ -20726,7 +20808,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="38.25">
+    <row r="113" spans="1:5" ht="45">
       <c r="A113" s="29" t="s">
         <v>315</v>
       </c>
@@ -20743,7 +20825,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="51">
+    <row r="114" spans="1:5" ht="60">
       <c r="A114" s="29" t="s">
         <v>315</v>
       </c>
@@ -20760,7 +20842,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="63.75">
+    <row r="115" spans="1:5" ht="60">
       <c r="A115" s="29" t="s">
         <v>227</v>
       </c>
@@ -20777,7 +20859,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="76.5">
+    <row r="116" spans="1:5" ht="75">
       <c r="A116" s="29" t="s">
         <v>487</v>
       </c>
@@ -20794,7 +20876,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="140.25">
+    <row r="117" spans="1:5" ht="120">
       <c r="A117" s="29" t="s">
         <v>487</v>
       </c>
@@ -20811,7 +20893,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="216.75">
+    <row r="118" spans="1:5" ht="210">
       <c r="A118" s="29" t="s">
         <v>402</v>
       </c>
@@ -20828,7 +20910,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="38.25">
+    <row r="119" spans="1:5" ht="45">
       <c r="A119" s="29" t="s">
         <v>402</v>
       </c>
@@ -20845,7 +20927,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="25.5">
+    <row r="120" spans="1:5" ht="30">
       <c r="A120" s="29" t="s">
         <v>497</v>
       </c>
@@ -20879,7 +20961,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="102">
+    <row r="122" spans="1:5" ht="120">
       <c r="A122" s="29" t="s">
         <v>497</v>
       </c>
@@ -20896,7 +20978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="89.25">
+    <row r="123" spans="1:5" ht="90">
       <c r="A123" s="29" t="s">
         <v>487</v>
       </c>
@@ -20913,7 +20995,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="114.75">
+    <row r="124" spans="1:5" ht="105">
       <c r="A124" s="29" t="s">
         <v>487</v>
       </c>
@@ -20930,7 +21012,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="204">
+    <row r="125" spans="1:5" ht="210">
       <c r="A125" s="29" t="s">
         <v>487</v>
       </c>
@@ -20947,7 +21029,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="25.5">
+    <row r="126" spans="1:5" ht="30">
       <c r="A126" s="29" t="s">
         <v>487</v>
       </c>
@@ -20964,7 +21046,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="63.75">
+    <row r="127" spans="1:5" ht="60">
       <c r="A127" s="29" t="s">
         <v>487</v>
       </c>
@@ -20981,7 +21063,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="51">
+    <row r="128" spans="1:5" ht="45">
       <c r="A128" s="29" t="s">
         <v>487</v>
       </c>
@@ -20998,7 +21080,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="204">
+    <row r="129" spans="1:5" ht="210">
       <c r="A129" s="29" t="s">
         <v>487</v>
       </c>
@@ -21015,7 +21097,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="102">
+    <row r="130" spans="1:5" ht="90">
       <c r="A130" s="29" t="s">
         <v>487</v>
       </c>
@@ -21032,7 +21114,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="38.25">
+    <row r="131" spans="1:5" ht="45">
       <c r="A131" s="29" t="s">
         <v>487</v>
       </c>
@@ -21049,7 +21131,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="76.5">
+    <row r="132" spans="1:5" ht="75">
       <c r="A132" s="29" t="s">
         <v>487</v>
       </c>
@@ -21066,7 +21148,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="204">
+    <row r="133" spans="1:5" ht="210">
       <c r="A133" s="29" t="s">
         <v>487</v>
       </c>
@@ -21083,7 +21165,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="76.5">
+    <row r="134" spans="1:5" ht="75">
       <c r="A134" s="29" t="s">
         <v>487</v>
       </c>
@@ -21100,7 +21182,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="165.75">
+    <row r="135" spans="1:5" ht="195">
       <c r="A135" s="29" t="s">
         <v>487</v>
       </c>
@@ -21117,7 +21199,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="25.5">
+    <row r="136" spans="1:5" ht="30">
       <c r="A136" s="29" t="s">
         <v>487</v>
       </c>
@@ -21134,7 +21216,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="76.5">
+    <row r="137" spans="1:5" ht="75">
       <c r="A137" s="29" t="s">
         <v>487</v>
       </c>
@@ -21151,7 +21233,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="89.25">
+    <row r="138" spans="1:5" ht="90">
       <c r="A138" s="29" t="s">
         <v>487</v>
       </c>
@@ -21168,7 +21250,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="242.25">
+    <row r="139" spans="1:5" ht="255">
       <c r="A139" s="29" t="s">
         <v>487</v>
       </c>
@@ -21219,7 +21301,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.5">
+    <row r="142" spans="1:5" ht="30">
       <c r="A142" s="29" t="s">
         <v>487</v>
       </c>
@@ -21236,7 +21318,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="38.25">
+    <row r="143" spans="1:5" ht="30">
       <c r="A143" s="29" t="s">
         <v>487</v>
       </c>
@@ -21253,7 +21335,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="38.25">
+    <row r="144" spans="1:5" ht="45">
       <c r="A144" s="29" t="s">
         <v>487</v>
       </c>
@@ -21270,7 +21352,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="38.25">
+    <row r="145" spans="1:5" ht="45">
       <c r="A145" s="29" t="s">
         <v>487</v>
       </c>
@@ -21287,7 +21369,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="38.25">
+    <row r="146" spans="1:5" ht="45">
       <c r="A146" s="29" t="s">
         <v>487</v>
       </c>
@@ -21304,7 +21386,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="89.25">
+    <row r="147" spans="1:5" ht="90">
       <c r="A147" s="29" t="s">
         <v>487</v>
       </c>
@@ -21321,7 +21403,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="38.25">
+    <row r="148" spans="1:5" ht="45">
       <c r="A148" s="29" t="s">
         <v>487</v>
       </c>
@@ -21338,7 +21420,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="38.25">
+    <row r="149" spans="1:5" ht="45">
       <c r="A149" s="29" t="s">
         <v>487</v>
       </c>
@@ -21355,7 +21437,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="63.75">
+    <row r="150" spans="1:5" ht="60">
       <c r="A150" s="29" t="s">
         <v>487</v>
       </c>
@@ -21372,7 +21454,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="204">
+    <row r="151" spans="1:5" ht="240">
       <c r="A151" s="29" t="s">
         <v>487</v>
       </c>
@@ -21389,7 +21471,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="76.5">
+    <row r="152" spans="1:5" ht="75">
       <c r="A152" s="29" t="s">
         <v>487</v>
       </c>
@@ -21406,7 +21488,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="204">
+    <row r="153" spans="1:5" ht="210">
       <c r="A153" s="29" t="s">
         <v>487</v>
       </c>
@@ -21423,7 +21505,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.5">
+    <row r="154" spans="1:5" ht="30">
       <c r="A154" s="29" t="s">
         <v>487</v>
       </c>
@@ -21440,7 +21522,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="127.5">
+    <row r="155" spans="1:5" ht="135">
       <c r="A155" s="29" t="s">
         <v>487</v>
       </c>
@@ -21474,7 +21556,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="165.75">
+    <row r="157" spans="1:5" ht="135">
       <c r="A157" s="29" t="s">
         <v>487</v>
       </c>
@@ -21491,7 +21573,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="63.75">
+    <row r="158" spans="1:5" ht="60">
       <c r="A158" s="29" t="s">
         <v>487</v>
       </c>
@@ -21508,7 +21590,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="51">
+    <row r="159" spans="1:5" ht="60">
       <c r="A159" s="29" t="s">
         <v>487</v>
       </c>
@@ -21542,7 +21624,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="38.25">
+    <row r="161" spans="1:5" ht="45">
       <c r="A161" s="29" t="s">
         <v>487</v>
       </c>
@@ -21559,7 +21641,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="216.75">
+    <row r="162" spans="1:5" ht="240">
       <c r="A162" s="29" t="s">
         <v>487</v>
       </c>
@@ -21576,7 +21658,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="38.25">
+    <row r="163" spans="1:5" ht="45">
       <c r="A163" s="29" t="s">
         <v>487</v>
       </c>
@@ -21593,7 +21675,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.5">
+    <row r="164" spans="1:5" ht="30">
       <c r="A164" s="29" t="s">
         <v>487</v>
       </c>
@@ -21610,7 +21692,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="76.5">
+    <row r="165" spans="1:5" ht="75">
       <c r="A165" s="29" t="s">
         <v>487</v>
       </c>
@@ -21627,7 +21709,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="38.25">
+    <row r="166" spans="1:5" ht="45">
       <c r="A166" s="29" t="s">
         <v>487</v>
       </c>
@@ -21644,7 +21726,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="89.25">
+    <row r="167" spans="1:5" ht="90">
       <c r="A167" s="29" t="s">
         <v>487</v>
       </c>
@@ -21661,7 +21743,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="38.25">
+    <row r="168" spans="1:5" ht="45">
       <c r="A168" s="29" t="s">
         <v>487</v>
       </c>
@@ -21678,7 +21760,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="38.25">
+    <row r="169" spans="1:5" ht="45">
       <c r="A169" s="29" t="s">
         <v>487</v>
       </c>
@@ -21695,7 +21777,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="178.5">
+    <row r="170" spans="1:5" ht="195">
       <c r="A170" s="30" t="s">
         <v>487</v>
       </c>
@@ -21712,7 +21794,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="89.25">
+    <row r="171" spans="1:5" ht="60">
       <c r="A171" s="30" t="s">
         <v>487</v>
       </c>
@@ -21729,7 +21811,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="63.75">
+    <row r="172" spans="1:5" ht="60">
       <c r="A172" s="30" t="s">
         <v>487</v>
       </c>
@@ -21746,7 +21828,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="38.25">
+    <row r="173" spans="1:5" ht="45">
       <c r="A173" s="30" t="s">
         <v>487</v>
       </c>
@@ -21763,7 +21845,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.5">
+    <row r="174" spans="1:5" ht="30">
       <c r="A174" s="30" t="s">
         <v>487</v>
       </c>
@@ -21780,7 +21862,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="38.25">
+    <row r="175" spans="1:5" ht="45">
       <c r="A175" s="30" t="s">
         <v>487</v>
       </c>
@@ -21797,7 +21879,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="191.25">
+    <row r="176" spans="1:5" ht="195">
       <c r="A176" s="30" t="s">
         <v>487</v>
       </c>
@@ -21814,7 +21896,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="25.5">
+    <row r="177" spans="1:5" ht="30">
       <c r="A177" s="30" t="s">
         <v>487</v>
       </c>
@@ -21831,7 +21913,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="63.75">
+    <row r="178" spans="1:5" ht="75">
       <c r="A178" s="30" t="s">
         <v>487</v>
       </c>
@@ -21848,7 +21930,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="63.75">
+    <row r="179" spans="1:5" ht="75">
       <c r="A179" s="30" t="s">
         <v>487</v>
       </c>
@@ -21882,7 +21964,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="38.25">
+    <row r="181" spans="1:5" ht="45">
       <c r="A181" s="30" t="s">
         <v>487</v>
       </c>
@@ -21916,7 +21998,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="38.25">
+    <row r="183" spans="1:5" ht="45">
       <c r="A183" s="30" t="s">
         <v>487</v>
       </c>
@@ -22001,7 +22083,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="51">
+    <row r="188" spans="1:5" ht="45">
       <c r="A188" s="30" t="s">
         <v>487</v>
       </c>
@@ -22018,7 +22100,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="25.5">
+    <row r="189" spans="1:5" ht="30">
       <c r="A189" s="30" t="s">
         <v>625</v>
       </c>
@@ -22035,7 +22117,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="25.5">
+    <row r="190" spans="1:5" ht="30">
       <c r="A190" s="30" t="s">
         <v>487</v>
       </c>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF544213-177B-5446-B5B0-49BAD2C15D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970DED6-D29E-DD49-95AC-FCA4BDF19F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,12 @@
     <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId15"/>
     <sheet name="Authentication Policy" sheetId="13" r:id="rId16"/>
     <sheet name="OpenAPILoginSheet" sheetId="21" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId18"/>
-    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId20"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId21"/>
+    <sheet name="OpenAPIClientConfig" sheetId="22" r:id="rId18"/>
+    <sheet name="ClientConfig" sheetId="23" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId20"/>
+    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId21"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId22"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1072">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3348,6 +3350,18 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
   </si>
 </sst>
 </file>
@@ -3643,7 +3657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3838,6 +3852,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6692,7 +6707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2393732-2845-D443-85F5-941FB28FA602}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -6716,7 +6731,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="153">
       <c r="A3" s="88" t="s">
         <v>1064</v>
       </c>
@@ -6724,7 +6739,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="153">
       <c r="A4" s="88" t="s">
         <v>1066</v>
       </c>
@@ -6738,634 +6753,78 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDE277-E56E-054F-B8E6-D09033C33B8F}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34">
-      <c r="A1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>976</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>977</v>
-      </c>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" ht="34">
-      <c r="A2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33">
-      <c r="A3" s="48" t="s">
-        <v>975</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="86" t="s">
-        <v>986</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>987</v>
-      </c>
-      <c r="J3" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32">
-      <c r="A4" s="48" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16">
-      <c r="A5" s="48" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="48" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16">
-      <c r="A7" s="48" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32">
-      <c r="A8" s="48" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16">
-      <c r="A9" s="48" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="48">
-      <c r="A10" s="48" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="32">
-      <c r="A11" s="48" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="32">
-      <c r="A12" s="48" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="32">
-      <c r="A13" s="48" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48" t="b">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="89" t="s">
+        <v>954</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="89">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:K25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F0BA6-4878-7D4A-92AC-EBF11E8BBC6B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="89" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="89">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89">
+        <v>5</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -7554,6 +7013,642 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34">
+      <c r="A1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>976</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>977</v>
+      </c>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="34">
+      <c r="A2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33">
+      <c r="A3" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="86" t="s">
+        <v>986</v>
+      </c>
+      <c r="I3" s="86" t="s">
+        <v>987</v>
+      </c>
+      <c r="J3" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32">
+      <c r="A4" s="48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="48" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="48" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32">
+      <c r="A8" s="48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="48" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48">
+      <c r="A10" s="48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="48" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32">
+      <c r="A12" s="48" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32">
+      <c r="A13" s="48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -7631,7 +7726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970DED6-D29E-DD49-95AC-FCA4BDF19F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9BED7-ADCE-9243-8BF1-65C19139A517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,11 @@
     <sheet name="OpenAPILoginSheet" sheetId="21" r:id="rId17"/>
     <sheet name="OpenAPIClientConfig" sheetId="22" r:id="rId18"/>
     <sheet name="ClientConfig" sheetId="23" r:id="rId19"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId20"/>
-    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId21"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId22"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId23"/>
+    <sheet name="AgentDetails" sheetId="24" r:id="rId20"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId21"/>
+    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId22"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId23"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1076">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3362,6 +3363,18 @@
   </si>
   <si>
     <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -6794,7 +6807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F0BA6-4878-7D4A-92AC-EBF11E8BBC6B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -7013,6 +7026,42 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE53326-3B26-CF4F-BEF0-6DD3966B7164}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="89" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -7262,7 +7311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -7648,7 +7697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -7726,7 +7775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9BED7-ADCE-9243-8BF1-65C19139A517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13990B68-6055-1148-9932-2F4B70A876B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="1087">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3359,12 +3359,6 @@
     <t>customerMsisdn</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -3375,6 +3369,45 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>invalidMsisdn</t>
   </si>
 </sst>
 </file>
@@ -3670,7 +3703,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3866,6 +3899,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6805,10 +6839,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F0BA6-4878-7D4A-92AC-EBF11E8BBC6B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6818,18 +6852,33 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="89" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="C1" s="89" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
+      <c r="D1" s="89" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="89">
         <v>1</v>
       </c>
@@ -6837,8 +6886,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>402</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="89">
+        <v>1</v>
+      </c>
+      <c r="B4" s="89">
+        <v>5</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G4" s="89">
+        <v>973099787</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89">
+        <v>123</v>
+      </c>
+      <c r="H5" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7029,7 +7151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE53326-3B26-CF4F-BEF0-6DD3966B7164}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -7037,13 +7159,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="89" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>1072</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -7052,7 +7174,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13990B68-6055-1148-9932-2F4B70A876B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D011DD9-F8BD-B64A-ABA4-DA4688E6C260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -6841,7 +6841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F0BA6-4878-7D4A-92AC-EBF11E8BBC6B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
@@ -7187,8 +7187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7392,7 +7392,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32">

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D011DD9-F8BD-B64A-ABA4-DA4688E6C260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC1E77-C982-7A4C-8704-DEAFEA4A8680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="1090">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3408,6 +3408,15 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months(Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 month</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
@@ -3703,7 +3712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3900,6 +3909,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6662,8 +6677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6740,13 +6755,16 @@
       <c r="I2" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="75"/>
+      <c r="J2" s="91" t="s">
+        <v>1087</v>
+      </c>
       <c r="K2" s="75"/>
       <c r="L2" s="75"/>
       <c r="M2" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6969,10 +6987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7142,8 +7160,18 @@
         <v>1037</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="88" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C16" s="92"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7187,7 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC1E77-C982-7A4C-8704-DEAFEA4A8680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF45331-0298-0846-89E4-B684E78C142A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="1091">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2911,19 +2911,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -3417,13 +3405,28 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Balance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3502,6 +3505,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3553,7 +3563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3702,6 +3712,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3712,7 +3735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -3915,6 +3938,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5930,7 +5956,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>893</v>
@@ -5952,7 +5978,7 @@
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="77" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>906</v>
@@ -5963,7 +5989,7 @@
         <v>23103239</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>894</v>
@@ -5985,7 +6011,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="77" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="Q4" s="18" t="s">
         <v>906</v>
@@ -6018,7 +6044,7 @@
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="77" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>906</v>
@@ -6029,10 +6055,10 @@
         <v>13221514</v>
       </c>
       <c r="B6" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C6" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D6">
         <v>973099787</v>
@@ -6485,7 +6511,7 @@
         <v>973099626</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6630,7 @@
     </row>
     <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>114</v>
@@ -6677,7 +6703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -6732,7 +6758,7 @@
         <v>220</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="75">
         <v>3</v>
@@ -6756,7 +6782,7 @@
         <v>226</v>
       </c>
       <c r="J2" s="91" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="K2" s="75"/>
       <c r="L2" s="75"/>
@@ -6784,32 +6810,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="88" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="88"/>
       <c r="B2" s="88" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="153">
       <c r="A3" s="88" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="153">
       <c r="A4" s="88" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -6832,10 +6858,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="89" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -6847,7 +6873,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -6872,28 +6898,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="89" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>1075</v>
       </c>
-      <c r="C1" s="89" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>1076</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
@@ -6904,36 +6930,36 @@
         <v>5</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="89"/>
       <c r="H2" s="90" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G3" s="89"/>
       <c r="H3" s="90" t="s">
@@ -6948,29 +6974,29 @@
         <v>5</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G4" s="89">
         <v>973099787</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D5" s="89"/>
       <c r="E5" s="89"/>
@@ -7003,169 +7029,169 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="16" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="16" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="16" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="16" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="16" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="16" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C6" s="82"/>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="16" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="16" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="16" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17">
       <c r="A10" s="16" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="16" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="16" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="16" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="82"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="16" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="82"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="16" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="88" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C16" s="92"/>
     </row>
@@ -7187,13 +7213,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="89" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -7202,7 +7228,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -7248,10 +7274,10 @@
         <v>144</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J1" s="48"/>
     </row>
@@ -7277,7 +7303,7 @@
     </row>
     <row r="3" spans="1:10" ht="33">
       <c r="A3" s="48" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -7286,10 +7312,10 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="86" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="J3" s="48" t="b">
         <v>0</v>
@@ -7297,7 +7323,7 @@
     </row>
     <row r="4" spans="1:10" ht="32">
       <c r="A4" s="48" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -7313,7 +7339,7 @@
     </row>
     <row r="5" spans="1:10" ht="16">
       <c r="A5" s="48" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -7329,7 +7355,7 @@
     </row>
     <row r="6" spans="1:10" ht="16">
       <c r="A6" s="48" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -7345,7 +7371,7 @@
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="48" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -7361,7 +7387,7 @@
     </row>
     <row r="8" spans="1:10" ht="32">
       <c r="A8" s="48" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -7377,7 +7403,7 @@
     </row>
     <row r="9" spans="1:10" ht="16">
       <c r="A9" s="48" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -7393,7 +7419,7 @@
     </row>
     <row r="10" spans="1:10" ht="48">
       <c r="A10" s="48" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -7409,7 +7435,7 @@
     </row>
     <row r="11" spans="1:10" ht="32">
       <c r="A11" s="48" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -7425,7 +7451,7 @@
     </row>
     <row r="12" spans="1:10" ht="32">
       <c r="A12" s="48" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -7441,7 +7467,7 @@
     </row>
     <row r="13" spans="1:10" ht="32">
       <c r="A13" s="48" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -7948,7 +7974,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8033,11 +8059,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="18" t="s">
@@ -8306,7 +8341,7 @@
         <v>917</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>918</v>
@@ -8329,22 +8364,24 @@
       <c r="A11" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="93" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E11" s="93" t="s">
         <v>922</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>923</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>924</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>925</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>926</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="F11" s="94" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>1090</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -8354,28 +8391,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="43" t="s">
+        <v>923</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>930</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>931</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>932</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>933</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>934</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -8385,19 +8422,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>936</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>937</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>938</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>939</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -8410,7 +8447,7 @@
     </row>
     <row r="14" spans="1:13" ht="48">
       <c r="A14" s="43" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>159</v>
@@ -8422,22 +8459,22 @@
         <v>42</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>48</v>
@@ -8447,7 +8484,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="43" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>37</v>
@@ -8459,13 +8496,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>914</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>42</v>
@@ -8478,16 +8515,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="43" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>138</v>
@@ -8503,19 +8540,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="43" t="s">
+        <v>948</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>949</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>951</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>952</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>953</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>954</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>955</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>956</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -8528,19 +8565,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="43" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>138</v>
@@ -8555,66 +8592,66 @@
     </row>
     <row r="19" spans="1:13" ht="48">
       <c r="A19" s="43" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="L19" s="43" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="43" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -8625,34 +8662,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="18" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -8660,22 +8697,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="18" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>138</v>
@@ -8912,7 +8949,7 @@
         <v>197</v>
       </c>
       <c r="BG2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -18897,7 +18934,7 @@
         <v>197</v>
       </c>
       <c r="BG2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:59">
@@ -18929,7 +18966,7 @@
         <v>197</v>
       </c>
       <c r="BG3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:59">

--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF45331-0298-0846-89E4-B684E78C142A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1312BDB-1F75-9B4F-8144-CFD453715AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="2420" windowWidth="30720" windowHeight="17520" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,27 @@
     <sheet name="Priority" sheetId="2" r:id="rId3"/>
     <sheet name="Headers" sheetId="3" r:id="rId4"/>
     <sheet name="NFTRTickets-San" sheetId="4" r:id="rId5"/>
-    <sheet name="FTRTickets-San" sheetId="5" r:id="rId6"/>
-    <sheet name="NFTR-ALL" sheetId="17" r:id="rId7"/>
-    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId8"/>
-    <sheet name="FTR-ALL" sheetId="18" r:id="rId9"/>
-    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId15"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId16"/>
-    <sheet name="OpenAPILoginSheet" sheetId="21" r:id="rId17"/>
-    <sheet name="OpenAPIClientConfig" sheetId="22" r:id="rId18"/>
-    <sheet name="ClientConfig" sheetId="23" r:id="rId19"/>
-    <sheet name="AgentDetails" sheetId="24" r:id="rId20"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId21"/>
-    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId22"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId23"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId24"/>
+    <sheet name="Assignment Rule" sheetId="25" r:id="rId6"/>
+    <sheet name="SLA Configuration" sheetId="26" r:id="rId7"/>
+    <sheet name="FTRTickets-San" sheetId="5" r:id="rId8"/>
+    <sheet name="NFTR-ALL" sheetId="17" r:id="rId9"/>
+    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId10"/>
+    <sheet name="FTR-ALL" sheetId="18" r:id="rId11"/>
+    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId12"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId13"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId14"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId15"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId16"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId17"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId18"/>
+    <sheet name="OpenAPILoginSheet" sheetId="21" r:id="rId19"/>
+    <sheet name="OpenAPIClientConfig" sheetId="22" r:id="rId20"/>
+    <sheet name="ClientConfig" sheetId="23" r:id="rId21"/>
+    <sheet name="AgentDetails" sheetId="24" r:id="rId22"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId23"/>
+    <sheet name="State Queue Mapping-ALL" sheetId="19" r:id="rId24"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId25"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,8 +49,197 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A756E694-D617-3D4A-8A04-F537AFFF8E22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0C00E470-95EB-E641-8540-7B975DDD6678}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{998DAA43-E4F0-5B40-A3CC-F4FC3A13A9BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8F227747-6943-BE44-B1CE-8AB3CD1B4C5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F91B7B2D-E959-D349-A071-A17E54D9EE54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1F0EE1D1-DEF2-D342-85F4-1FDC96FD3037}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F7DC9AF6-92C1-A34B-B6B4-D72D1D1C4C5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4486" uniqueCount="1111">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3421,14 +3612,81 @@
   <si>
     <t xml:space="preserve">Remaining Balance </t>
   </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3511,6 +3769,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3728,219 +4005,223 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6071,6 +6352,4079 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:BG129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="73" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="16">
+      <c r="A1" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>897</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>898</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>900</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>901</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>902</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>903</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>904</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
+      <c r="A2" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>882</v>
+      </c>
+      <c r="AW2" s="72">
+        <v>48</v>
+      </c>
+      <c r="BD2" s="72">
+        <v>48</v>
+      </c>
+      <c r="BE2" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
+      <c r="A3" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>644</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>833</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>882</v>
+      </c>
+      <c r="AW3" s="72">
+        <v>48</v>
+      </c>
+      <c r="BD3" s="72">
+        <v>48</v>
+      </c>
+      <c r="BE3" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
+      <c r="A4"/>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:59">
+      <c r="A6"/>
+    </row>
+    <row r="7" spans="1:59">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="A8"/>
+    </row>
+    <row r="9" spans="1:59">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:59">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:59">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:59">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:59">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:59">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E3">
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60">
+      <c r="A3" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="120">
+      <c r="A6" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75">
+      <c r="A13" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60">
+      <c r="A16" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60">
+      <c r="A19" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60">
+      <c r="A20" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60">
+      <c r="A25" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60">
+      <c r="A26" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60">
+      <c r="A27" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="75">
+      <c r="A29" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90">
+      <c r="A30" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="75">
+      <c r="A31" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45">
+      <c r="A32" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="75">
+      <c r="A35" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="75">
+      <c r="A36" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="90">
+      <c r="A37" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60">
+      <c r="A38" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45">
+      <c r="A39" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="75">
+      <c r="A40" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="135">
+      <c r="A41" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45">
+      <c r="A43" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="75">
+      <c r="A45" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="90">
+      <c r="A46" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60">
+      <c r="A48" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45">
+      <c r="A49" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
+      <c r="A50" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45">
+      <c r="A54" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30">
+      <c r="A55" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45">
+      <c r="A59" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30">
+      <c r="A60" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60">
+      <c r="A61" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60">
+      <c r="A62" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45">
+      <c r="A63" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60">
+      <c r="A66" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="75">
+      <c r="A67" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30">
+      <c r="A69" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45">
+      <c r="A72" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
+      <c r="A73" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="32">
+      <c r="A74" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30">
+      <c r="A75" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="75">
+      <c r="A77" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16">
+      <c r="A79" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="32">
+      <c r="A80" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="32">
+      <c r="A82" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C82" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="48">
+      <c r="A83" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="32">
+      <c r="A84" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="32">
+      <c r="A85" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C85" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30">
+      <c r="A86" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45">
+      <c r="A87" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30">
+      <c r="A88" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45">
+      <c r="A89" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30">
+      <c r="A91" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45">
+      <c r="A92" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30">
+      <c r="A93" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45">
+      <c r="A96" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30">
+      <c r="A97" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="60">
+      <c r="A98" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60">
+      <c r="A99" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="60">
+      <c r="A100" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E100" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="180">
+      <c r="A101" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45">
+      <c r="A102" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E102" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="D103" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="E103" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E104" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="90">
+      <c r="A105" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="E105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="45">
+      <c r="A106" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="E106" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="180">
+      <c r="A107" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="E107" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="45">
+      <c r="A108" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="225">
+      <c r="A109" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="90">
+      <c r="A110" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E110" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="135">
+      <c r="A111" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="E111" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="75">
+      <c r="A112" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E112" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="45">
+      <c r="A113" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="E113" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60">
+      <c r="A114" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="E114" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="60">
+      <c r="A115" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E115" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="75">
+      <c r="A116" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="E116" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="120">
+      <c r="A117" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="E117" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="210">
+      <c r="A118" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="E118" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45">
+      <c r="A119" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="E119" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30">
+      <c r="A120" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="E120" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B121" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="C121" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="D121" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="E121" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="120">
+      <c r="A122" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="E122" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="90">
+      <c r="A123" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="E123" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="105">
+      <c r="A124" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="E124" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="210">
+      <c r="A125" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B125" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="D125" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="E125" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30">
+      <c r="A126" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60">
+      <c r="A127" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45">
+      <c r="A128" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="E128" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="210">
+      <c r="A129" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E129" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="90">
+      <c r="A130" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="45">
+      <c r="A131" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="E131" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="75">
+      <c r="A132" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="210">
+      <c r="A133" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B133" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="E133" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="75">
+      <c r="A134" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E134" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="195">
+      <c r="A135" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B135" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="E135" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="30">
+      <c r="A136" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="D136" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="E136" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="75">
+      <c r="A137" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E137" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="90">
+      <c r="A138" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="255">
+      <c r="A139" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B139" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="D139" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="E139" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E140" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E141" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30">
+      <c r="A142" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="E142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30">
+      <c r="A143" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="D143" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="E143" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="45">
+      <c r="A144" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="D144" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="E144" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="45">
+      <c r="A145" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="D145" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="E145" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45">
+      <c r="A146" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="D146" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="E146" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="90">
+      <c r="A147" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D147" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E147" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45">
+      <c r="A148" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B148" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="D148" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="E148" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="45">
+      <c r="A149" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="E149" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="60">
+      <c r="A150" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E150" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="240">
+      <c r="A151" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="E151" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="75">
+      <c r="A152" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E152" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="210">
+      <c r="A153" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B153" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="E153" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30">
+      <c r="A154" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="E154" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="135">
+      <c r="A155" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E155" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="E156" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="135">
+      <c r="A157" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B157" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="E157" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="60">
+      <c r="A158" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="E158" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="60">
+      <c r="A159" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="D159" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E160" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="45">
+      <c r="A161" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="D161" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E161" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="240">
+      <c r="A162" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B162" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E162" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="45">
+      <c r="A163" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E163" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="30">
+      <c r="A164" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B164" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E164" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="75">
+      <c r="A165" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E165" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="45">
+      <c r="A166" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="E166" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="90">
+      <c r="A167" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B167" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E167" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="45">
+      <c r="A168" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="D168" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E168" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="45">
+      <c r="A169" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="E169" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="195">
+      <c r="A170" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="D170" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="E170" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="60">
+      <c r="A171" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="60">
+      <c r="A172" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B172" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="E172" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="45">
+      <c r="A173" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E173" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30">
+      <c r="A174" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E174" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="45">
+      <c r="A175" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="E175" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="195">
+      <c r="A176" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B176" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="D176" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E176" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="30">
+      <c r="A177" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B177" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="E177" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="75">
+      <c r="A178" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B178" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E178" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="75">
+      <c r="A179" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B179" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="D179" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="E179" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B180" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="E180" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="45">
+      <c r="A181" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B181" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="D181" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="E181" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B182" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="E182" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="45">
+      <c r="A183" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B183" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="D183" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="E183" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="E184" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="E185" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B186" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="E186" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B187" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E187" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="45">
+      <c r="A188" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B188" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="E188" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30">
+      <c r="A189" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="B189" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="E189" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="30">
+      <c r="A190" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B190" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="E190" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E191" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E192" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="E193" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B194" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C194" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D194" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="E194" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B195" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="E195" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="E196" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B197" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="E197" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B198" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="D198" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="E198" t="s">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E96:E198 E2:E93">
+    <cfRule type="duplicateValues" dxfId="72" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="68" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="duplicateValues" dxfId="67" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="duplicateValues" dxfId="66" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="duplicateValues" dxfId="63" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="duplicateValues" dxfId="62" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="61" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E16">
+    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E18">
+    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E25">
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32 E29:E30">
+    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E39">
+    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E45">
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E51">
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:E74">
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:E76">
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -6144,7 +10498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -6449,7 +10803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -6529,7 +10883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6602,7 +10956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -6667,7 +11021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -6699,7 +11053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6794,7 +11148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2393732-2845-D443-85F5-941FB28FA602}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6837,174 +11191,6 @@
       <c r="B4" s="88" t="s">
         <v>1063</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDE277-E56E-054F-B8E6-D09033C33B8F}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="89" t="s">
-        <v>950</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="89">
-        <v>767240995</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F0BA6-4878-7D4A-92AC-EBF11E8BBC6B}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="89" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16">
-      <c r="A2" s="89">
-        <v>1</v>
-      </c>
-      <c r="B2" s="89">
-        <v>5</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D2" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16">
-      <c r="A4" s="89">
-        <v>1</v>
-      </c>
-      <c r="B4" s="89">
-        <v>5</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F4" s="90" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G4" s="89">
-        <v>973099787</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89">
-        <v>123</v>
-      </c>
-      <c r="H5" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7202,6 +11388,174 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDE277-E56E-054F-B8E6-D09033C33B8F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="89" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="89">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F0BA6-4878-7D4A-92AC-EBF11E8BBC6B}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="89" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" s="89">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89">
+        <v>5</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="89">
+        <v>1</v>
+      </c>
+      <c r="B4" s="89">
+        <v>5</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G4" s="89">
+        <v>973099787</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89">
+        <v>123</v>
+      </c>
+      <c r="H5" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE53326-3B26-CF4F-BEF0-6DD3966B7164}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7237,7 +11591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -7487,7 +11841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -7873,7 +12227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -7951,7 +12305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8059,7 +12413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -8169,7 +12523,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="48">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="18" t="s">
         <v>41</v>
       </c>
@@ -8445,7 +12799,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="48">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="43" t="s">
         <v>936</v>
       </c>
@@ -8735,8 +13089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8920,33 +13274,33 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>834</v>
+    <row r="2" spans="1:59" ht="18">
+      <c r="A2" s="96" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>1095</v>
       </c>
       <c r="AV2" t="s">
-        <v>882</v>
+        <v>1096</v>
       </c>
       <c r="AW2" s="72">
-        <v>48</v>
+        <v>0.6</v>
       </c>
       <c r="BD2" s="72">
-        <v>48</v>
+        <v>0.6</v>
       </c>
       <c r="BE2" s="25" t="s">
-        <v>197</v>
+        <v>1096</v>
       </c>
       <c r="BG2" t="s">
         <v>974</v>
@@ -8963,6 +13317,172 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB613DD-7C40-C649-85CB-B57680D0D1C9}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" s="99" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="99" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C694C059-578F-1243-BE2B-547A4ED487BD}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16">
+      <c r="A2" s="99" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="99" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9022,7 +13542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL129"/>
   <sheetViews>
@@ -18711,4077 +23231,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:BG129"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="73" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:59" ht="16">
-      <c r="A1" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>897</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>898</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>899</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>900</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>901</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>902</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>903</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>904</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>834</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>882</v>
-      </c>
-      <c r="AW2" s="72">
-        <v>48</v>
-      </c>
-      <c r="BD2" s="72">
-        <v>48</v>
-      </c>
-      <c r="BE2" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="80" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>644</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>644</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>833</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>882</v>
-      </c>
-      <c r="AW3" s="72">
-        <v>48</v>
-      </c>
-      <c r="BD3" s="72">
-        <v>48</v>
-      </c>
-      <c r="BE3" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:59">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:59">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:59">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:59">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:59">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:59">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:59">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:59">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:59">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:59">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:59">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:59">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F198"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="120">
-      <c r="A6" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
-      <c r="A8" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
-      <c r="A9" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90">
-      <c r="A11" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75">
-      <c r="A13" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60">
-      <c r="A16" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
-      <c r="A17" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60">
-      <c r="A19" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60">
-      <c r="A20" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="60">
-      <c r="A25" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="60">
-      <c r="A26" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60">
-      <c r="A27" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="75">
-      <c r="A29" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="90">
-      <c r="A30" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="75">
-      <c r="A31" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
-      <c r="A32" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="75">
-      <c r="A35" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="75">
-      <c r="A36" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="90">
-      <c r="A37" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60">
-      <c r="A38" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="75">
-      <c r="A40" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="135">
-      <c r="A41" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45">
-      <c r="A43" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30">
-      <c r="A44" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="75">
-      <c r="A45" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="90">
-      <c r="A46" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60">
-      <c r="A48" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45">
-      <c r="A49" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45">
-      <c r="A54" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30">
-      <c r="A55" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30">
-      <c r="A57" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45">
-      <c r="A59" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30">
-      <c r="A60" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="60">
-      <c r="A61" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60">
-      <c r="A62" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45">
-      <c r="A63" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="60">
-      <c r="A66" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="75">
-      <c r="A67" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30">
-      <c r="A69" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30">
-      <c r="A71" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="45">
-      <c r="A72" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30">
-      <c r="A73" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="E73" s="46" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="32">
-      <c r="A74" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30">
-      <c r="A75" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="75">
-      <c r="A77" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="16">
-      <c r="A79" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="32">
-      <c r="A80" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="E81" s="46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="32">
-      <c r="A82" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="48">
-      <c r="A83" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B83" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="C83" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="D83" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="32">
-      <c r="A84" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="32">
-      <c r="A85" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30">
-      <c r="A86" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="45">
-      <c r="A87" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30">
-      <c r="A88" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="45">
-      <c r="A89" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30">
-      <c r="A90" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30">
-      <c r="A91" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="45">
-      <c r="A92" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30">
-      <c r="A93" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45">
-      <c r="A96" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30">
-      <c r="A97" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="60">
-      <c r="A98" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="60">
-      <c r="A99" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="60">
-      <c r="A100" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="E100" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="180">
-      <c r="A101" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="E101" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45">
-      <c r="A102" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="E102" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="C103" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="D103" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="E103" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E104" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="90">
-      <c r="A105" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="E105" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="45">
-      <c r="A106" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="E106" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="180">
-      <c r="A107" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B107" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="D107" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="E107" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="45">
-      <c r="A108" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="225">
-      <c r="A109" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E109" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="90">
-      <c r="A110" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="E110" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="135">
-      <c r="A111" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="E111" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="75">
-      <c r="A112" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="D112" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="E112" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="45">
-      <c r="A113" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="D113" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="E113" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="60">
-      <c r="A114" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="E114" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="60">
-      <c r="A115" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="E115" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="75">
-      <c r="A116" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="E116" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="120">
-      <c r="A117" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="D117" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="E117" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="210">
-      <c r="A118" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="D118" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="E118" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="45">
-      <c r="A119" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="E119" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30">
-      <c r="A120" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="C120" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="D120" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="E120" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B121" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="C121" s="52" t="s">
-        <v>501</v>
-      </c>
-      <c r="D121" s="52" t="s">
-        <v>501</v>
-      </c>
-      <c r="E121" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="120">
-      <c r="A122" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="E122" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="90">
-      <c r="A123" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="D123" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="E123" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="105">
-      <c r="A124" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="D124" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E124" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="210">
-      <c r="A125" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B125" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="D125" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="E125" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30">
-      <c r="A126" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B126" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="D126" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="E126" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="60">
-      <c r="A127" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B127" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="D127" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="E127" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="45">
-      <c r="A128" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="E128" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="210">
-      <c r="A129" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C129" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="D129" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="E129" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="90">
-      <c r="A130" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B130" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E130" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="45">
-      <c r="A131" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="D131" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="E131" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="75">
-      <c r="A132" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B132" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D132" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E132" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="210">
-      <c r="A133" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B133" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="E133" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="75">
-      <c r="A134" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B134" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D134" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E134" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="195">
-      <c r="A135" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B135" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="D135" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="E135" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="30">
-      <c r="A136" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>527</v>
-      </c>
-      <c r="D136" s="34" t="s">
-        <v>527</v>
-      </c>
-      <c r="E136" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="75">
-      <c r="A137" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E137" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="90">
-      <c r="A138" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B138" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C138" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D138" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E138" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="255">
-      <c r="A139" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B139" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C139" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="D139" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="E139" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B140" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="D140" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E140" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B141" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C141" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D141" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="E141" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30">
-      <c r="A142" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B142" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="E142" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30">
-      <c r="A143" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B143" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="D143" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="E143" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="45">
-      <c r="A144" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B144" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="C144" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="D144" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="E144" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="45">
-      <c r="A145" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B145" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="C145" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="D145" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="E145" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="45">
-      <c r="A146" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B146" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="C146" s="40" t="s">
-        <v>548</v>
-      </c>
-      <c r="D146" s="40" t="s">
-        <v>548</v>
-      </c>
-      <c r="E146" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="90">
-      <c r="A147" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C147" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="D147" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E147" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="45">
-      <c r="A148" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B148" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C148" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="D148" s="40" t="s">
-        <v>551</v>
-      </c>
-      <c r="E148" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="45">
-      <c r="A149" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="C149" s="43" t="s">
-        <v>553</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="E149" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="60">
-      <c r="A150" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B150" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E150" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="240">
-      <c r="A151" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B151" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="E151" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="75">
-      <c r="A152" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B152" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D152" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E152" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="210">
-      <c r="A153" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B153" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="D153" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="E153" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30">
-      <c r="A154" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B154" s="29" t="s">
-        <v>561</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>562</v>
-      </c>
-      <c r="D154" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="E154" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="135">
-      <c r="A155" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B155" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="D155" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E155" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B156" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>567</v>
-      </c>
-      <c r="D156" s="29" t="s">
-        <v>567</v>
-      </c>
-      <c r="E156" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="135">
-      <c r="A157" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="E157" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="60">
-      <c r="A158" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="E158" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="60">
-      <c r="A159" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C159" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="D159" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="E159" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="D160" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E160" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="45">
-      <c r="A161" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B161" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="D161" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="E161" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="240">
-      <c r="A162" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B162" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="D162" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="E162" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="45">
-      <c r="A163" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B163" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D163" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E163" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="30">
-      <c r="A164" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D164" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="E164" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="75">
-      <c r="A165" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B165" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D165" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="E165" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="45">
-      <c r="A166" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C166" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="D166" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="E166" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="90">
-      <c r="A167" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="D167" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E167" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="45">
-      <c r="A168" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="D168" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="E168" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="45">
-      <c r="A169" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="B169" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C169" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="E169" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="195">
-      <c r="A170" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B170" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C170" s="55" t="s">
-        <v>590</v>
-      </c>
-      <c r="D170" s="55" t="s">
-        <v>590</v>
-      </c>
-      <c r="E170" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="60">
-      <c r="A171" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B171" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C171" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="E171" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="60">
-      <c r="A172" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B172" s="29" t="s">
-        <v>593</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="D172" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="E172" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="45">
-      <c r="A173" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B173" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E173" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30">
-      <c r="A174" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B174" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="C174" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D174" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E174" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="45">
-      <c r="A175" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B175" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="E175" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="195">
-      <c r="A176" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B176" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C176" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="D176" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="E176" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30">
-      <c r="A177" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B177" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="C177" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="D177" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="E177" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="75">
-      <c r="A178" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B178" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="C178" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="D178" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="E178" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="75">
-      <c r="A179" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B179" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="C179" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="D179" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="E179" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B180" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="D180" s="29" t="s">
-        <v>608</v>
-      </c>
-      <c r="E180" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="45">
-      <c r="A181" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B181" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="C181" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="D181" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="E181" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B182" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="C182" s="29" t="s">
-        <v>613</v>
-      </c>
-      <c r="D182" s="29" t="s">
-        <v>613</v>
-      </c>
-      <c r="E182" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="45">
-      <c r="A183" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B183" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="C183" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="D183" s="47" t="s">
-        <v>393</v>
-      </c>
-      <c r="E183" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="E184" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="E185" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B186" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="E186" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B187" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="E187" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="45">
-      <c r="A188" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B188" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="C188" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="E188" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="30">
-      <c r="A189" s="30" t="s">
-        <v>625</v>
-      </c>
-      <c r="B189" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="C189" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="D189" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="E189" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="30">
-      <c r="A190" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B190" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="C190" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="D190" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="E190" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D191" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E191" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="E192" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="E193" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B194" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="C194" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="D194" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="E194" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B195" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="C195" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="D195" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="E195" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="D196" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="E196" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="B197" s="29" t="s">
-        <v>638</v>
-      </c>
-      <c r="C197" s="29" t="s">
-        <v>639</v>
-      </c>
-      <c r="D197" s="29" t="s">
-        <v>639</v>
-      </c>
-      <c r="E197" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="B198" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="C198" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="D198" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="E198" t="s">
-        <v>642</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E96:E198 E2:E93">
-    <cfRule type="duplicateValues" dxfId="72" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="68" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="duplicateValues" dxfId="67" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="66" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="63" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="62" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="61" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="58" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E16">
-    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
-    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E25">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32 E29:E30">
-    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E45">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E51">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:E74">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75:E76">
-    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/ZM.xlsx
+++ b/resources/excels/ZM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1312BDB-1F75-9B4F-8144-CFD453715AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F05651-A6E1-A34A-B52A-A82489200419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2420" windowWidth="30720" windowHeight="17520" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20320" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4486" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="1109">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3590,12 +3590,6 @@
   </si>
   <si>
     <t>Last Data Bundle Recharge Amount in 2 months(Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 month</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -3752,11 +3746,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tondo-regular"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3788,6 +3777,11 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Tondo-regular"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4012,7 +4006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -4204,24 +4198,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11057,8 +11048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11111,11 +11102,11 @@
       <c r="A2" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="98" t="s">
         <v>1056</v>
       </c>
       <c r="C2" s="75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>221</v>
@@ -11135,7 +11126,7 @@
       <c r="I2" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="90" t="s">
         <v>1083</v>
       </c>
       <c r="K2" s="75"/>
@@ -11163,32 +11154,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>1057</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="153">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>1060</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="153">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>1062</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -11199,10 +11190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -11371,15 +11362,6 @@
       <c r="C15" s="16" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34">
-      <c r="A16" s="88" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C16" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11401,22 +11383,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>950</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
     </row>
     <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="89">
+      <c r="A3" s="88">
         <v>767240995</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -11441,114 +11423,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>1070</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>1071</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="88" t="s">
         <v>1064</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="88" t="s">
         <v>1072</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="88" t="s">
         <v>1073</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="88" t="s">
         <v>1074</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="88" t="s">
         <v>1075</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
-      <c r="A2" s="89">
+      <c r="A2" s="88">
         <v>1</v>
       </c>
-      <c r="B2" s="89">
+      <c r="B2" s="88">
         <v>5</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>1077</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="89" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88" t="s">
         <v>1080</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="89" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16">
-      <c r="A4" s="89">
+      <c r="A4" s="88">
         <v>1</v>
       </c>
-      <c r="B4" s="89">
+      <c r="B4" s="88">
         <v>5</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>1081</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="89" t="s">
         <v>1078</v>
       </c>
-      <c r="G4" s="89">
+      <c r="G4" s="88">
         <v>973099787</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="89" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88" t="s">
         <v>1082</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88">
         <v>123</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11566,22 +11548,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>1067</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="88" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88">
         <v>13221514</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -11596,7 +11578,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11800,7 +11782,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32">
@@ -12718,23 +12700,23 @@
       <c r="A11" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="91" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D11" s="93" t="s">
         <v>1086</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="E11" s="91" t="s">
+        <v>922</v>
+      </c>
+      <c r="F11" s="92" t="s">
         <v>1087</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="G11" s="92" t="s">
         <v>1088</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>922</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G11" s="94" t="s">
-        <v>1090</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -13275,23 +13257,23 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="18">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="94" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C2" s="94" t="s">
         <v>1091</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="D2" s="94" t="s">
         <v>1092</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="E2" s="95" t="s">
         <v>1093</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="AV2" t="s">
         <v>1094</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>1096</v>
       </c>
       <c r="AW2" s="72">
         <v>0.6</v>
@@ -13300,7 +13282,7 @@
         <v>0.6</v>
       </c>
       <c r="BE2" s="25" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="BG2" t="s">
         <v>974</v>
@@ -13320,7 +13302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB613DD-7C40-C649-85CB-B57680D0D1C9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -13328,16 +13310,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16">
       <c r="A1" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>90</v>
@@ -13346,28 +13328,28 @@
         <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
-      <c r="A2" s="99" t="s">
-        <v>1095</v>
+      <c r="A2" s="97" t="s">
+        <v>1093</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="99" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F2" s="99" t="s">
+      <c r="D2" s="97" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="97" t="s">
         <v>104</v>
       </c>
       <c r="H2" s="2">
@@ -13392,28 +13374,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16">
       <c r="A1" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>1098</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>1099</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>1100</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>1101</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>1102</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>1104</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>81</v>
@@ -13439,16 +13421,16 @@
       <c r="P1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="96" t="s">
         <v>89</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16">
-      <c r="A2" s="99" t="s">
-        <v>1095</v>
+      <c r="A2" s="97" t="s">
+        <v>1093</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -13457,8 +13439,8 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="99" t="s">
-        <v>1096</v>
+      <c r="I2" s="97" t="s">
+        <v>1094</v>
       </c>
       <c r="J2" s="4">
         <v>0.6</v>
